--- a/PDanalysis/results/BodySpearman_UPDRS.xlsx
+++ b/PDanalysis/results/BodySpearman_UPDRS.xlsx
@@ -13,7 +13,3172 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1152" uniqueCount="1055">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2304" uniqueCount="2110">
+  <si>
+    <t>ActivityFeature</t>
+  </si>
+  <si>
+    <t>Time Lying(Night)(%)</t>
+  </si>
+  <si>
+    <t>Time Lying(Day)(%)</t>
+  </si>
+  <si>
+    <t>Time Lying(%)</t>
+  </si>
+  <si>
+    <t>Time SitStand (%)</t>
+  </si>
+  <si>
+    <t>Time Walking(%)</t>
+  </si>
+  <si>
+    <t>Time Activities(%)</t>
+  </si>
+  <si>
+    <t>Walking Acc(mean)</t>
+  </si>
+  <si>
+    <t>Walking Acc(std)</t>
+  </si>
+  <si>
+    <t>Walking Acc(variability)</t>
+  </si>
+  <si>
+    <t>Walking Acc(median)</t>
+  </si>
+  <si>
+    <t>Activities Acc(mean)</t>
+  </si>
+  <si>
+    <t>Activities Acc(std)</t>
+  </si>
+  <si>
+    <t>Activities Acc(variability)</t>
+  </si>
+  <si>
+    <t>Activities Acc(median)</t>
+  </si>
+  <si>
+    <t>Step Count</t>
+  </si>
+  <si>
+    <t>Heel strike Acc(mean)</t>
+  </si>
+  <si>
+    <t>Heel strike Acc(std)</t>
+  </si>
+  <si>
+    <t>Heel strike Acc(variability)</t>
+  </si>
+  <si>
+    <t>Heel strike Acc(median)</t>
+  </si>
+  <si>
+    <t>Step duration(mean)</t>
+  </si>
+  <si>
+    <t>Step duration(std)</t>
+  </si>
+  <si>
+    <t>Step duration(variability)</t>
+  </si>
+  <si>
+    <t>Step duration(median)</t>
+  </si>
+  <si>
+    <t>cognitive</t>
+  </si>
+  <si>
+    <t>-0.38(0.405)</t>
+  </si>
+  <si>
+    <t>0.18(0.667)</t>
+  </si>
+  <si>
+    <t>-0.10(0.833)</t>
+  </si>
+  <si>
+    <t>-0.43(0.310)</t>
+  </si>
+  <si>
+    <t>-0.15(0.714)</t>
+  </si>
+  <si>
+    <t>0.11(0.798)</t>
+  </si>
+  <si>
+    <t>0.12(0.774)</t>
+  </si>
+  <si>
+    <t>-0.12(0.774)</t>
+  </si>
+  <si>
+    <t>-0.07(0.869)</t>
+  </si>
+  <si>
+    <t>-0.05(0.905)</t>
+  </si>
+  <si>
+    <t>-0.03(0.964)</t>
+  </si>
+  <si>
+    <t>-0.16(0.690)</t>
+  </si>
+  <si>
+    <t>-0.15(0.714)</t>
+  </si>
+  <si>
+    <t>0.41(0.333)</t>
+  </si>
+  <si>
+    <t>0.52(0.179)</t>
+  </si>
+  <si>
+    <t>-0.25(0.548)</t>
+  </si>
+  <si>
+    <t>-0.40(0.369)</t>
+  </si>
+  <si>
+    <t>0.70(0.048)</t>
+  </si>
+  <si>
+    <t>-0.30(0.476)</t>
+  </si>
+  <si>
+    <t>hallucinations</t>
+  </si>
+  <si>
+    <t>0.62(0.143)</t>
+  </si>
+  <si>
+    <t>0.51(0.250)</t>
+  </si>
+  <si>
+    <t>0.85(0.036)</t>
+  </si>
+  <si>
+    <t>-0.28(0.571)</t>
+  </si>
+  <si>
+    <t>-0.17(0.786)</t>
+  </si>
+  <si>
+    <t>-0.28(0.571)</t>
+  </si>
+  <si>
+    <t>-0.62(0.143)</t>
+  </si>
+  <si>
+    <t>-0.51(0.250)</t>
+  </si>
+  <si>
+    <t>0.85(0.036)</t>
+  </si>
+  <si>
+    <t>-0.85(0.036)</t>
+  </si>
+  <si>
+    <t>-0.39(0.393)</t>
+  </si>
+  <si>
+    <t>0.85(0.036)</t>
+  </si>
+  <si>
+    <t>-0.85(0.036)</t>
+  </si>
+  <si>
+    <t>-0.17(0.786)</t>
+  </si>
+  <si>
+    <t>-0.39(0.393)</t>
+  </si>
+  <si>
+    <t>-0.17(0.786)</t>
+  </si>
+  <si>
+    <t>0.06(1.000)</t>
+  </si>
+  <si>
+    <t>-0.17(0.786)</t>
+  </si>
+  <si>
+    <t>0.51(0.250)</t>
+  </si>
+  <si>
+    <t>0.28(0.571)</t>
+  </si>
+  <si>
+    <t>0.39(0.393)</t>
+  </si>
+  <si>
+    <t>depressed</t>
+  </si>
+  <si>
+    <t>-0.19(0.679)</t>
+  </si>
+  <si>
+    <t>0.46(0.280)</t>
+  </si>
+  <si>
+    <t>0.14(0.762)</t>
+  </si>
+  <si>
+    <t>-0.44(0.321)</t>
+  </si>
+  <si>
+    <t>-0.35(0.417)</t>
+  </si>
+  <si>
+    <t>-0.63(0.107)</t>
+  </si>
+  <si>
+    <t>-0.60(0.125)</t>
+  </si>
+  <si>
+    <t>0.19(0.679)</t>
+  </si>
+  <si>
+    <t>-0.46(0.280)</t>
+  </si>
+  <si>
+    <t>-0.35(0.417)</t>
+  </si>
+  <si>
+    <t>-0.60(0.125)</t>
+  </si>
+  <si>
+    <t>0.08(0.875)</t>
+  </si>
+  <si>
+    <t>-0.46(0.280)</t>
+  </si>
+  <si>
+    <t>-0.44(0.321)</t>
+  </si>
+  <si>
+    <t>-0.60(0.125)</t>
+  </si>
+  <si>
+    <t>-0.79(0.024)</t>
+  </si>
+  <si>
+    <t>-0.76(0.030)</t>
+  </si>
+  <si>
+    <t>-0.44(0.321)</t>
+  </si>
+  <si>
+    <t>0.79(0.024)</t>
+  </si>
+  <si>
+    <t>0.19(0.679)</t>
+  </si>
+  <si>
+    <t>0.11(0.821)</t>
+  </si>
+  <si>
+    <t>0.87(0.006)</t>
+  </si>
+  <si>
+    <t>anxious</t>
+  </si>
+  <si>
+    <t>-0.13(0.771)</t>
+  </si>
+  <si>
+    <t>0.51(0.200)</t>
+  </si>
+  <si>
+    <t>0.21(0.621)</t>
+  </si>
+  <si>
+    <t>-0.67(0.079)</t>
+  </si>
+  <si>
+    <t>-0.05(0.914)</t>
+  </si>
+  <si>
+    <t>0.01(0.986)</t>
+  </si>
+  <si>
+    <t>-0.27(0.514)</t>
+  </si>
+  <si>
+    <t>0.21(0.621)</t>
+  </si>
+  <si>
+    <t>-0.27(0.514)</t>
+  </si>
+  <si>
+    <t>-0.18(0.679)</t>
+  </si>
+  <si>
+    <t>-0.27(0.514)</t>
+  </si>
+  <si>
+    <t>0.30(0.464)</t>
+  </si>
+  <si>
+    <t>-0.37(0.386)</t>
+  </si>
+  <si>
+    <t>-0.05(0.914)</t>
+  </si>
+  <si>
+    <t>-0.37(0.386)</t>
+  </si>
+  <si>
+    <t>-0.39(0.336)</t>
+  </si>
+  <si>
+    <t>-0.14(0.750)</t>
+  </si>
+  <si>
+    <t>0.64(0.107)</t>
+  </si>
+  <si>
+    <t>0.05(0.914)</t>
+  </si>
+  <si>
+    <t>-0.04(0.936)</t>
+  </si>
+  <si>
+    <t>0.73(0.050)</t>
+  </si>
+  <si>
+    <t>apathy</t>
+  </si>
+  <si>
+    <t>0.23(0.571)</t>
+  </si>
+  <si>
+    <t>0.32(0.452)</t>
+  </si>
+  <si>
+    <t>0.51(0.202)</t>
+  </si>
+  <si>
+    <t>-0.58(0.155)</t>
+  </si>
+  <si>
+    <t>0.19(0.655)</t>
+  </si>
+  <si>
+    <t>0.29(0.512)</t>
+  </si>
+  <si>
+    <t>-0.18(0.667)</t>
+  </si>
+  <si>
+    <t>-0.08(0.845)</t>
+  </si>
+  <si>
+    <t>0.70(0.048)</t>
+  </si>
+  <si>
+    <t>-0.54(0.167)</t>
+  </si>
+  <si>
+    <t>-0.08(0.845)</t>
+  </si>
+  <si>
+    <t>0.87(0.012)</t>
+  </si>
+  <si>
+    <t>-0.62(0.095)</t>
+  </si>
+  <si>
+    <t>0.19(0.655)</t>
+  </si>
+  <si>
+    <t>-0.16(0.690)</t>
+  </si>
+  <si>
+    <t>0.29(0.512)</t>
+  </si>
+  <si>
+    <t>0.38(0.405)</t>
+  </si>
+  <si>
+    <t>0.11(0.798)</t>
+  </si>
+  <si>
+    <t>0.15(0.714)</t>
+  </si>
+  <si>
+    <t>0.34(0.417)</t>
+  </si>
+  <si>
+    <t>0.44(0.286)</t>
+  </si>
+  <si>
+    <t>0.05(0.905)</t>
+  </si>
+  <si>
+    <t>dopamine</t>
+  </si>
+  <si>
+    <t>-0.18(0.679)</t>
+  </si>
+  <si>
+    <t>0.34(0.407)</t>
+  </si>
+  <si>
+    <t>0.18(0.679)</t>
+  </si>
+  <si>
+    <t>-0.63(0.114)</t>
+  </si>
+  <si>
+    <t>-0.29(0.486)</t>
+  </si>
+  <si>
+    <t>0.03(0.964)</t>
+  </si>
+  <si>
+    <t>-0.22(0.593)</t>
+  </si>
+  <si>
+    <t>0.13(0.771)</t>
+  </si>
+  <si>
+    <t>-0.40(0.307)</t>
+  </si>
+  <si>
+    <t>-0.38(0.350)</t>
+  </si>
+  <si>
+    <t>0.22(0.593)</t>
+  </si>
+  <si>
+    <t>-0.50(0.207)</t>
+  </si>
+  <si>
+    <t>-0.29(0.486)</t>
+  </si>
+  <si>
+    <t>-0.47(0.236)</t>
+  </si>
+  <si>
+    <t>0.14(0.750)</t>
+  </si>
+  <si>
+    <t>0.26(0.543)</t>
+  </si>
+  <si>
+    <t>-0.38(0.350)</t>
+  </si>
+  <si>
+    <t>-0.03(0.964)</t>
+  </si>
+  <si>
+    <t>0.78(0.029)</t>
+  </si>
+  <si>
+    <t>0.07(0.886)</t>
+  </si>
+  <si>
+    <t>sleep_problems</t>
+  </si>
+  <si>
+    <t>-0.10(0.845)</t>
+  </si>
+  <si>
+    <t>-0.65(0.095)</t>
+  </si>
+  <si>
+    <t>-0.40(0.341)</t>
+  </si>
+  <si>
+    <t>0.65(0.095)</t>
+  </si>
+  <si>
+    <t>0.10(0.845)</t>
+  </si>
+  <si>
+    <t>0.20(0.652)</t>
+  </si>
+  <si>
+    <t>0.23(0.596)</t>
+  </si>
+  <si>
+    <t>-0.45(0.271)</t>
+  </si>
+  <si>
+    <t>0.38(0.359)</t>
+  </si>
+  <si>
+    <t>0.18(0.702)</t>
+  </si>
+  <si>
+    <t>-0.38(0.359)</t>
+  </si>
+  <si>
+    <t>0.45(0.271)</t>
+  </si>
+  <si>
+    <t>0.10(0.845)</t>
+  </si>
+  <si>
+    <t>0.25(0.561)</t>
+  </si>
+  <si>
+    <t>0.23(0.596)</t>
+  </si>
+  <si>
+    <t>0.10(0.845)</t>
+  </si>
+  <si>
+    <t>0.18(0.702)</t>
+  </si>
+  <si>
+    <t>-0.65(0.095)</t>
+  </si>
+  <si>
+    <t>-0.30(0.470)</t>
+  </si>
+  <si>
+    <t>-0.28(0.509)</t>
+  </si>
+  <si>
+    <t>day_sleep</t>
+  </si>
+  <si>
+    <t>0.31(0.486)</t>
+  </si>
+  <si>
+    <t>0.44(0.300)</t>
+  </si>
+  <si>
+    <t>0.57(0.175)</t>
+  </si>
+  <si>
+    <t>-0.13(0.811)</t>
+  </si>
+  <si>
+    <t>-0.76(0.050)</t>
+  </si>
+  <si>
+    <t>-0.69(0.086)</t>
+  </si>
+  <si>
+    <t>-0.88(0.011)</t>
+  </si>
+  <si>
+    <t>-0.82(0.029)</t>
+  </si>
+  <si>
+    <t>0.44(0.300)</t>
+  </si>
+  <si>
+    <t>-0.88(0.011)</t>
+  </si>
+  <si>
+    <t>-0.82(0.029)</t>
+  </si>
+  <si>
+    <t>0.25(0.579)</t>
+  </si>
+  <si>
+    <t>-0.82(0.029)</t>
+  </si>
+  <si>
+    <t>-0.76(0.050)</t>
+  </si>
+  <si>
+    <t>-0.50(0.218)</t>
+  </si>
+  <si>
+    <t>-0.25(0.579)</t>
+  </si>
+  <si>
+    <t>-0.69(0.086)</t>
+  </si>
+  <si>
+    <t>0.44(0.300)</t>
+  </si>
+  <si>
+    <t>0.69(0.086)</t>
+  </si>
+  <si>
+    <t>0.76(0.050)</t>
+  </si>
+  <si>
+    <t>0.44(0.300)</t>
+  </si>
+  <si>
+    <t>pain_sensations</t>
+  </si>
+  <si>
+    <t>-0.13(0.770)</t>
+  </si>
+  <si>
+    <t>0.24(0.567)</t>
+  </si>
+  <si>
+    <t>0.20(0.639)</t>
+  </si>
+  <si>
+    <t>-0.11(0.794)</t>
+  </si>
+  <si>
+    <t>-0.33(0.430)</t>
+  </si>
+  <si>
+    <t>-0.20(0.639)</t>
+  </si>
+  <si>
+    <t>-0.42(0.304)</t>
+  </si>
+  <si>
+    <t>-0.27(0.527)</t>
+  </si>
+  <si>
+    <t>0.29(0.490)</t>
+  </si>
+  <si>
+    <t>-0.55(0.169)</t>
+  </si>
+  <si>
+    <t>-0.46(0.265)</t>
+  </si>
+  <si>
+    <t>-0.33(0.430)</t>
+  </si>
+  <si>
+    <t>0.32(0.446)</t>
+  </si>
+  <si>
+    <t>-0.55(0.169)</t>
+  </si>
+  <si>
+    <t>-0.33(0.430)</t>
+  </si>
+  <si>
+    <t>0.00(1.000)</t>
+  </si>
+  <si>
+    <t>0.20(0.639)</t>
+  </si>
+  <si>
+    <t>-0.33(0.430)</t>
+  </si>
+  <si>
+    <t>-0.11(0.794)</t>
+  </si>
+  <si>
+    <t>0.53(0.181)</t>
+  </si>
+  <si>
+    <t>0.60(0.126)</t>
+  </si>
+  <si>
+    <t>0.16(0.698)</t>
+  </si>
+  <si>
+    <t>urinary</t>
+  </si>
+  <si>
+    <t>-0.11(0.799)</t>
+  </si>
+  <si>
+    <t>0.38(0.355)</t>
+  </si>
+  <si>
+    <t>0.31(0.457)</t>
+  </si>
+  <si>
+    <t>-0.34(0.403)</t>
+  </si>
+  <si>
+    <t>-0.39(0.338)</t>
+  </si>
+  <si>
+    <t>-0.23(0.579)</t>
+  </si>
+  <si>
+    <t>-0.63(0.107)</t>
+  </si>
+  <si>
+    <t>-0.47(0.248)</t>
+  </si>
+  <si>
+    <t>0.50(0.211)</t>
+  </si>
+  <si>
+    <t>-0.75(0.039)</t>
+  </si>
+  <si>
+    <t>-0.65(0.089)</t>
+  </si>
+  <si>
+    <t>-0.52(0.197)</t>
+  </si>
+  <si>
+    <t>0.48(0.239)</t>
+  </si>
+  <si>
+    <t>-0.75(0.039)</t>
+  </si>
+  <si>
+    <t>-0.39(0.338)</t>
+  </si>
+  <si>
+    <t>-0.52(0.197)</t>
+  </si>
+  <si>
+    <t>-0.23(0.579)</t>
+  </si>
+  <si>
+    <t>-0.05(0.917)</t>
+  </si>
+  <si>
+    <t>-0.39(0.338)</t>
+  </si>
+  <si>
+    <t>0.23(0.579)</t>
+  </si>
+  <si>
+    <t>0.60(0.125)</t>
+  </si>
+  <si>
+    <t>0.66(0.080)</t>
+  </si>
+  <si>
+    <t>0.39(0.338)</t>
+  </si>
+  <si>
+    <t>constipation</t>
+  </si>
+  <si>
+    <t>-0.18(0.679)</t>
+  </si>
+  <si>
+    <t>0.34(0.407)</t>
+  </si>
+  <si>
+    <t>0.18(0.679)</t>
+  </si>
+  <si>
+    <t>-0.63(0.114)</t>
+  </si>
+  <si>
+    <t>-0.29(0.486)</t>
+  </si>
+  <si>
+    <t>0.03(0.964)</t>
+  </si>
+  <si>
+    <t>-0.22(0.593)</t>
+  </si>
+  <si>
+    <t>0.13(0.771)</t>
+  </si>
+  <si>
+    <t>-0.40(0.307)</t>
+  </si>
+  <si>
+    <t>-0.38(0.350)</t>
+  </si>
+  <si>
+    <t>0.22(0.593)</t>
+  </si>
+  <si>
+    <t>-0.50(0.207)</t>
+  </si>
+  <si>
+    <t>-0.29(0.486)</t>
+  </si>
+  <si>
+    <t>-0.47(0.236)</t>
+  </si>
+  <si>
+    <t>0.14(0.750)</t>
+  </si>
+  <si>
+    <t>0.26(0.543)</t>
+  </si>
+  <si>
+    <t>-0.38(0.350)</t>
+  </si>
+  <si>
+    <t>-0.03(0.964)</t>
+  </si>
+  <si>
+    <t>0.78(0.029)</t>
+  </si>
+  <si>
+    <t>0.07(0.886)</t>
+  </si>
+  <si>
+    <t>light_head</t>
+  </si>
+  <si>
+    <t>0.40(0.341)</t>
+  </si>
+  <si>
+    <t>0.73(0.050)</t>
+  </si>
+  <si>
+    <t>0.70(0.068)</t>
+  </si>
+  <si>
+    <t>-0.60(0.129)</t>
+  </si>
+  <si>
+    <t>-0.10(0.845)</t>
+  </si>
+  <si>
+    <t>-0.18(0.702)</t>
+  </si>
+  <si>
+    <t>-0.05(0.930)</t>
+  </si>
+  <si>
+    <t>-0.10(0.845)</t>
+  </si>
+  <si>
+    <t>0.25(0.561)</t>
+  </si>
+  <si>
+    <t>-0.35(0.393)</t>
+  </si>
+  <si>
+    <t>-0.40(0.341)</t>
+  </si>
+  <si>
+    <t>-0.10(0.845)</t>
+  </si>
+  <si>
+    <t>0.43(0.296)</t>
+  </si>
+  <si>
+    <t>-0.50(0.218)</t>
+  </si>
+  <si>
+    <t>-0.10(0.845)</t>
+  </si>
+  <si>
+    <t>-0.25(0.561)</t>
+  </si>
+  <si>
+    <t>0.30(0.470)</t>
+  </si>
+  <si>
+    <t>0.58(0.146)</t>
+  </si>
+  <si>
+    <t>-0.25(0.561)</t>
+  </si>
+  <si>
+    <t>0.13(0.782)</t>
+  </si>
+  <si>
+    <t>0.48(0.248)</t>
+  </si>
+  <si>
+    <t>0.10(0.845)</t>
+  </si>
+  <si>
+    <t>fatigue</t>
+  </si>
+  <si>
+    <t>0.38(0.356)</t>
+  </si>
+  <si>
+    <t>0.54(0.171)</t>
+  </si>
+  <si>
+    <t>0.65(0.089)</t>
+  </si>
+  <si>
+    <t>-0.33(0.420)</t>
+  </si>
+  <si>
+    <t>-0.79(0.029)</t>
+  </si>
+  <si>
+    <t>-0.64(0.098)</t>
+  </si>
+  <si>
+    <t>-0.80(0.025)</t>
+  </si>
+  <si>
+    <t>-0.83(0.015)</t>
+  </si>
+  <si>
+    <t>0.23(0.582)</t>
+  </si>
+  <si>
+    <t>-0.80(0.025)</t>
+  </si>
+  <si>
+    <t>-0.83(0.015)</t>
+  </si>
+  <si>
+    <t>-0.88(0.006)</t>
+  </si>
+  <si>
+    <t>0.16(0.711)</t>
+  </si>
+  <si>
+    <t>-0.80(0.025)</t>
+  </si>
+  <si>
+    <t>-0.79(0.029)</t>
+  </si>
+  <si>
+    <t>-0.88(0.006)</t>
+  </si>
+  <si>
+    <t>-0.42(0.306)</t>
+  </si>
+  <si>
+    <t>-0.17(0.683)</t>
+  </si>
+  <si>
+    <t>-0.79(0.029)</t>
+  </si>
+  <si>
+    <t>0.42(0.306)</t>
+  </si>
+  <si>
+    <t>0.77(0.033)</t>
+  </si>
+  <si>
+    <t>0.53(0.186)</t>
+  </si>
+  <si>
+    <t>speech</t>
+  </si>
+  <si>
+    <t>0.09(0.849)</t>
+  </si>
+  <si>
+    <t>0.58(0.142)</t>
+  </si>
+  <si>
+    <t>0.50(0.208)</t>
+  </si>
+  <si>
+    <t>-0.43(0.286)</t>
+  </si>
+  <si>
+    <t>-0.61(0.115)</t>
+  </si>
+  <si>
+    <t>-0.44(0.273)</t>
+  </si>
+  <si>
+    <t>-0.61(0.115)</t>
+  </si>
+  <si>
+    <t>-0.58(0.142)</t>
+  </si>
+  <si>
+    <t>0.22(0.593)</t>
+  </si>
+  <si>
+    <t>-0.71(0.057)</t>
+  </si>
+  <si>
+    <t>-0.68(0.077)</t>
+  </si>
+  <si>
+    <t>-0.66(0.082)</t>
+  </si>
+  <si>
+    <t>0.26(0.533)</t>
+  </si>
+  <si>
+    <t>-0.76(0.036)</t>
+  </si>
+  <si>
+    <t>-0.61(0.115)</t>
+  </si>
+  <si>
+    <t>-0.71(0.057)</t>
+  </si>
+  <si>
+    <t>-0.18(0.667)</t>
+  </si>
+  <si>
+    <t>0.09(0.849)</t>
+  </si>
+  <si>
+    <t>-0.66(0.082)</t>
+  </si>
+  <si>
+    <t>0.18(0.667)</t>
+  </si>
+  <si>
+    <t>0.79(0.029)</t>
+  </si>
+  <si>
+    <t>0.45(0.259)</t>
+  </si>
+  <si>
+    <t>saliva</t>
+  </si>
+  <si>
+    <t>0.48(0.248)</t>
+  </si>
+  <si>
+    <t>0.55(0.177)</t>
+  </si>
+  <si>
+    <t>0.78(0.034)</t>
+  </si>
+  <si>
+    <t>-0.20(0.652)</t>
+  </si>
+  <si>
+    <t>-0.35(0.393)</t>
+  </si>
+  <si>
+    <t>-0.43(0.296)</t>
+  </si>
+  <si>
+    <t>-0.70(0.068)</t>
+  </si>
+  <si>
+    <t>-0.58(0.146)</t>
+  </si>
+  <si>
+    <t>0.65(0.095)</t>
+  </si>
+  <si>
+    <t>-0.85(0.013)</t>
+  </si>
+  <si>
+    <t>-0.80(0.023)</t>
+  </si>
+  <si>
+    <t>-0.50(0.218)</t>
+  </si>
+  <si>
+    <t>0.68(0.079)</t>
+  </si>
+  <si>
+    <t>-0.85(0.013)</t>
+  </si>
+  <si>
+    <t>-0.35(0.393)</t>
+  </si>
+  <si>
+    <t>-0.50(0.218)</t>
+  </si>
+  <si>
+    <t>-0.25(0.561)</t>
+  </si>
+  <si>
+    <t>0.03(0.980)</t>
+  </si>
+  <si>
+    <t>-0.35(0.393)</t>
+  </si>
+  <si>
+    <t>0.40(0.341)</t>
+  </si>
+  <si>
+    <t>0.35(0.393)</t>
+  </si>
+  <si>
+    <t>0.43(0.296)</t>
+  </si>
+  <si>
+    <t>0.55(0.177)</t>
+  </si>
+  <si>
+    <t>chewing</t>
+  </si>
+  <si>
+    <t>0.44(0.343)</t>
+  </si>
+  <si>
+    <t>0.87(0.029)</t>
+  </si>
+  <si>
+    <t>-0.65(0.114)</t>
+  </si>
+  <si>
+    <t>-0.44(0.343)</t>
+  </si>
+  <si>
+    <t>-0.55(0.200)</t>
+  </si>
+  <si>
+    <t>0.44(0.343)</t>
+  </si>
+  <si>
+    <t>-0.76(0.057)</t>
+  </si>
+  <si>
+    <t>-0.55(0.200)</t>
+  </si>
+  <si>
+    <t>0.55(0.200)</t>
+  </si>
+  <si>
+    <t>-0.87(0.029)</t>
+  </si>
+  <si>
+    <t>-0.44(0.343)</t>
+  </si>
+  <si>
+    <t>-0.65(0.114)</t>
+  </si>
+  <si>
+    <t>-0.11(0.886)</t>
+  </si>
+  <si>
+    <t>0.22(0.686)</t>
+  </si>
+  <si>
+    <t>-0.55(0.200)</t>
+  </si>
+  <si>
+    <t>0.44(0.343)</t>
+  </si>
+  <si>
+    <t>0.65(0.114)</t>
+  </si>
+  <si>
+    <t>0.55(0.200)</t>
+  </si>
+  <si>
+    <t>eating</t>
+  </si>
+  <si>
+    <t>-0.35(0.417)</t>
+  </si>
+  <si>
+    <t>0.79(0.024)</t>
+  </si>
+  <si>
+    <t>0.22(0.631)</t>
+  </si>
+  <si>
+    <t>-0.85(0.012)</t>
+  </si>
+  <si>
+    <t>-0.19(0.679)</t>
+  </si>
+  <si>
+    <t>-0.11(0.821)</t>
+  </si>
+  <si>
+    <t>-0.14(0.762)</t>
+  </si>
+  <si>
+    <t>-0.11(0.821)</t>
+  </si>
+  <si>
+    <t>0.11(0.821)</t>
+  </si>
+  <si>
+    <t>-0.30(0.512)</t>
+  </si>
+  <si>
+    <t>-0.19(0.679)</t>
+  </si>
+  <si>
+    <t>0.25(0.571)</t>
+  </si>
+  <si>
+    <t>-0.46(0.280)</t>
+  </si>
+  <si>
+    <t>-0.19(0.679)</t>
+  </si>
+  <si>
+    <t>-0.35(0.417)</t>
+  </si>
+  <si>
+    <t>-0.05(0.911)</t>
+  </si>
+  <si>
+    <t>0.14(0.762)</t>
+  </si>
+  <si>
+    <t>-0.35(0.417)</t>
+  </si>
+  <si>
+    <t>0.30(0.512)</t>
+  </si>
+  <si>
+    <t>0.52(0.208)</t>
+  </si>
+  <si>
+    <t>0.44(0.321)</t>
+  </si>
+  <si>
+    <t>0.46(0.280)</t>
+  </si>
+  <si>
+    <t>dressing</t>
+  </si>
+  <si>
+    <t>0.33(0.420)</t>
+  </si>
+  <si>
+    <t>0.68(0.073)</t>
+  </si>
+  <si>
+    <t>0.67(0.080)</t>
+  </si>
+  <si>
+    <t>-0.37(0.363)</t>
+  </si>
+  <si>
+    <t>-0.68(0.073)</t>
+  </si>
+  <si>
+    <t>-0.62(0.115)</t>
+  </si>
+  <si>
+    <t>-0.52(0.199)</t>
+  </si>
+  <si>
+    <t>-0.56(0.162)</t>
+  </si>
+  <si>
+    <t>0.12(0.776)</t>
+  </si>
+  <si>
+    <t>-0.64(0.096)</t>
+  </si>
+  <si>
+    <t>-0.68(0.073)</t>
+  </si>
+  <si>
+    <t>-0.62(0.115)</t>
+  </si>
+  <si>
+    <t>0.14(0.745)</t>
+  </si>
+  <si>
+    <t>-0.70(0.061)</t>
+  </si>
+  <si>
+    <t>-0.68(0.073)</t>
+  </si>
+  <si>
+    <t>-0.07(0.871)</t>
+  </si>
+  <si>
+    <t>0.27(0.507)</t>
+  </si>
+  <si>
+    <t>-0.74(0.040)</t>
+  </si>
+  <si>
+    <t>0.14(0.745)</t>
+  </si>
+  <si>
+    <t>0.84(0.013)</t>
+  </si>
+  <si>
+    <t>0.28(0.485)</t>
+  </si>
+  <si>
+    <t>hygiene</t>
+  </si>
+  <si>
+    <t>0.22(0.593)</t>
+  </si>
+  <si>
+    <t>0.82(0.021)</t>
+  </si>
+  <si>
+    <t>0.63(0.114)</t>
+  </si>
+  <si>
+    <t>-0.46(0.264)</t>
+  </si>
+  <si>
+    <t>-0.85(0.014)</t>
+  </si>
+  <si>
+    <t>-0.78(0.029)</t>
+  </si>
+  <si>
+    <t>-0.65(0.086)</t>
+  </si>
+  <si>
+    <t>-0.72(0.057)</t>
+  </si>
+  <si>
+    <t>0.00(1.000)</t>
+  </si>
+  <si>
+    <t>-0.65(0.086)</t>
+  </si>
+  <si>
+    <t>-0.78(0.029)</t>
+  </si>
+  <si>
+    <t>-0.03(0.964)</t>
+  </si>
+  <si>
+    <t>-0.72(0.057)</t>
+  </si>
+  <si>
+    <t>-0.85(0.014)</t>
+  </si>
+  <si>
+    <t>-0.38(0.350)</t>
+  </si>
+  <si>
+    <t>-0.04(0.936)</t>
+  </si>
+  <si>
+    <t>-0.91(0.007)</t>
+  </si>
+  <si>
+    <t>0.38(0.350)</t>
+  </si>
+  <si>
+    <t>0.82(0.021)</t>
+  </si>
+  <si>
+    <t>0.76(0.036)</t>
+  </si>
+  <si>
+    <t>0.60(0.129)</t>
+  </si>
+  <si>
+    <t>handwriting</t>
+  </si>
+  <si>
+    <t>0.14(0.750)</t>
+  </si>
+  <si>
+    <t>0.62(0.111)</t>
+  </si>
+  <si>
+    <t>0.43(0.293)</t>
+  </si>
+  <si>
+    <t>-0.19(0.654)</t>
+  </si>
+  <si>
+    <t>-0.94(0.004)</t>
+  </si>
+  <si>
+    <t>-0.88(0.007)</t>
+  </si>
+  <si>
+    <t>-0.69(0.068)</t>
+  </si>
+  <si>
+    <t>-0.76(0.036)</t>
+  </si>
+  <si>
+    <t>-0.13(0.771)</t>
+  </si>
+  <si>
+    <t>-0.57(0.157)</t>
+  </si>
+  <si>
+    <t>-0.82(0.018)</t>
+  </si>
+  <si>
+    <t>-0.26(0.518)</t>
+  </si>
+  <si>
+    <t>-0.57(0.157)</t>
+  </si>
+  <si>
+    <t>-0.94(0.004)</t>
+  </si>
+  <si>
+    <t>-0.82(0.018)</t>
+  </si>
+  <si>
+    <t>-0.53(0.186)</t>
+  </si>
+  <si>
+    <t>-0.24(0.571)</t>
+  </si>
+  <si>
+    <t>-0.94(0.004)</t>
+  </si>
+  <si>
+    <t>0.34(0.396)</t>
+  </si>
+  <si>
+    <t>0.74(0.043)</t>
+  </si>
+  <si>
+    <t>0.68(0.071)</t>
+  </si>
+  <si>
+    <t>0.54(0.171)</t>
+  </si>
+  <si>
+    <t>hobbies</t>
+  </si>
+  <si>
+    <t>0.22(0.593)</t>
+  </si>
+  <si>
+    <t>0.77(0.029)</t>
+  </si>
+  <si>
+    <t>0.63(0.107)</t>
+  </si>
+  <si>
+    <t>-0.50(0.211)</t>
+  </si>
+  <si>
+    <t>-0.72(0.048)</t>
+  </si>
+  <si>
+    <t>-0.66(0.080)</t>
+  </si>
+  <si>
+    <t>-0.58(0.145)</t>
+  </si>
+  <si>
+    <t>-0.60(0.125)</t>
+  </si>
+  <si>
+    <t>0.21(0.617)</t>
+  </si>
+  <si>
+    <t>-0.70(0.061)</t>
+  </si>
+  <si>
+    <t>-0.72(0.048)</t>
+  </si>
+  <si>
+    <t>-0.66(0.080)</t>
+  </si>
+  <si>
+    <t>0.15(0.724)</t>
+  </si>
+  <si>
+    <t>-0.76(0.033)</t>
+  </si>
+  <si>
+    <t>-0.72(0.048)</t>
+  </si>
+  <si>
+    <t>-0.20(0.643)</t>
+  </si>
+  <si>
+    <t>0.15(0.724)</t>
+  </si>
+  <si>
+    <t>-0.79(0.025)</t>
+  </si>
+  <si>
+    <t>0.31(0.457)</t>
+  </si>
+  <si>
+    <t>0.92(0.002)</t>
+  </si>
+  <si>
+    <t>0.32(0.436)</t>
+  </si>
+  <si>
+    <t>turning</t>
+  </si>
+  <si>
+    <t>0.20(0.652)</t>
+  </si>
+  <si>
+    <t>0.85(0.013)</t>
+  </si>
+  <si>
+    <t>0.65(0.095)</t>
+  </si>
+  <si>
+    <t>-0.53(0.191)</t>
+  </si>
+  <si>
+    <t>-0.60(0.129)</t>
+  </si>
+  <si>
+    <t>-0.68(0.079)</t>
+  </si>
+  <si>
+    <t>0.20(0.652)</t>
+  </si>
+  <si>
+    <t>-0.68(0.079)</t>
+  </si>
+  <si>
+    <t>-0.60(0.129)</t>
+  </si>
+  <si>
+    <t>-0.68(0.079)</t>
+  </si>
+  <si>
+    <t>0.25(0.561)</t>
+  </si>
+  <si>
+    <t>-0.75(0.039)</t>
+  </si>
+  <si>
+    <t>-0.60(0.129)</t>
+  </si>
+  <si>
+    <t>-0.75(0.039)</t>
+  </si>
+  <si>
+    <t>-0.50(0.218)</t>
+  </si>
+  <si>
+    <t>-0.23(0.596)</t>
+  </si>
+  <si>
+    <t>-0.68(0.079)</t>
+  </si>
+  <si>
+    <t>0.60(0.129)</t>
+  </si>
+  <si>
+    <t>0.48(0.248)</t>
+  </si>
+  <si>
+    <t>0.40(0.341)</t>
+  </si>
+  <si>
+    <t>0.90(0.005)</t>
+  </si>
+  <si>
+    <t>tremor</t>
+  </si>
+  <si>
+    <t>-0.30(0.464)</t>
+  </si>
+  <si>
+    <t>-0.17(0.707)</t>
+  </si>
+  <si>
+    <t>-0.39(0.336)</t>
+  </si>
+  <si>
+    <t>-0.05(0.914)</t>
+  </si>
+  <si>
+    <t>-0.04(0.936)</t>
+  </si>
+  <si>
+    <t>0.05(0.914)</t>
+  </si>
+  <si>
+    <t>0.33(0.429)</t>
+  </si>
+  <si>
+    <t>0.23(0.579)</t>
+  </si>
+  <si>
+    <t>-0.29(0.486)</t>
+  </si>
+  <si>
+    <t>0.33(0.429)</t>
+  </si>
+  <si>
+    <t>0.23(0.579)</t>
+  </si>
+  <si>
+    <t>0.14(0.750)</t>
+  </si>
+  <si>
+    <t>-0.44(0.279)</t>
+  </si>
+  <si>
+    <t>0.33(0.429)</t>
+  </si>
+  <si>
+    <t>-0.04(0.936)</t>
+  </si>
+  <si>
+    <t>0.14(0.750)</t>
+  </si>
+  <si>
+    <t>0.20(0.643)</t>
+  </si>
+  <si>
+    <t>0.13(0.771)</t>
+  </si>
+  <si>
+    <t>-0.04(0.936)</t>
+  </si>
+  <si>
+    <t>-0.22(0.593)</t>
+  </si>
+  <si>
+    <t>0.29(0.486)</t>
+  </si>
+  <si>
+    <t>-0.60(0.129)</t>
+  </si>
+  <si>
+    <t>getting_up</t>
+  </si>
+  <si>
+    <t>0.57(0.175)</t>
+  </si>
+  <si>
+    <t>0.69(0.086)</t>
+  </si>
+  <si>
+    <t>0.88(0.011)</t>
+  </si>
+  <si>
+    <t>-0.31(0.486)</t>
+  </si>
+  <si>
+    <t>-0.57(0.175)</t>
+  </si>
+  <si>
+    <t>-0.63(0.121)</t>
+  </si>
+  <si>
+    <t>-0.82(0.029)</t>
+  </si>
+  <si>
+    <t>-0.76(0.050)</t>
+  </si>
+  <si>
+    <t>0.63(0.121)</t>
+  </si>
+  <si>
+    <t>-0.94(0.004)</t>
+  </si>
+  <si>
+    <t>-0.69(0.086)</t>
+  </si>
+  <si>
+    <t>0.57(0.175)</t>
+  </si>
+  <si>
+    <t>-0.94(0.004)</t>
+  </si>
+  <si>
+    <t>-0.57(0.175)</t>
+  </si>
+  <si>
+    <t>-0.69(0.086)</t>
+  </si>
+  <si>
+    <t>-0.38(0.379)</t>
+  </si>
+  <si>
+    <t>-0.06(0.957)</t>
+  </si>
+  <si>
+    <t>-0.57(0.175)</t>
+  </si>
+  <si>
+    <t>0.57(0.175)</t>
+  </si>
+  <si>
+    <t>0.63(0.121)</t>
+  </si>
+  <si>
+    <t>0.57(0.175)</t>
+  </si>
+  <si>
+    <t>walking</t>
+  </si>
+  <si>
+    <t>0.43(0.283)</t>
+  </si>
+  <si>
+    <t>0.91(0.005)</t>
+  </si>
+  <si>
+    <t>0.86(0.012)</t>
+  </si>
+  <si>
+    <t>-0.65(0.086)</t>
+  </si>
+  <si>
+    <t>-0.63(0.107)</t>
+  </si>
+  <si>
+    <t>-0.68(0.076)</t>
+  </si>
+  <si>
+    <t>-0.70(0.064)</t>
+  </si>
+  <si>
+    <t>0.43(0.283)</t>
+  </si>
+  <si>
+    <t>-0.83(0.019)</t>
+  </si>
+  <si>
+    <t>-0.86(0.012)</t>
+  </si>
+  <si>
+    <t>-0.70(0.064)</t>
+  </si>
+  <si>
+    <t>0.41(0.307)</t>
+  </si>
+  <si>
+    <t>-0.91(0.005)</t>
+  </si>
+  <si>
+    <t>-0.63(0.107)</t>
+  </si>
+  <si>
+    <t>-0.78(0.033)</t>
+  </si>
+  <si>
+    <t>-0.31(0.457)</t>
+  </si>
+  <si>
+    <t>0.03(0.969)</t>
+  </si>
+  <si>
+    <t>-0.70(0.064)</t>
+  </si>
+  <si>
+    <t>0.60(0.129)</t>
+  </si>
+  <si>
+    <t>0.78(0.033)</t>
+  </si>
+  <si>
+    <t>0.55(0.167)</t>
+  </si>
+  <si>
+    <t>freezing</t>
+  </si>
+  <si>
+    <t>0.44(0.343)</t>
+  </si>
+  <si>
+    <t>0.87(0.029)</t>
+  </si>
+  <si>
+    <t>-0.65(0.114)</t>
+  </si>
+  <si>
+    <t>-0.44(0.343)</t>
+  </si>
+  <si>
+    <t>-0.55(0.200)</t>
+  </si>
+  <si>
+    <t>0.44(0.343)</t>
+  </si>
+  <si>
+    <t>-0.76(0.057)</t>
+  </si>
+  <si>
+    <t>-0.55(0.200)</t>
+  </si>
+  <si>
+    <t>0.55(0.200)</t>
+  </si>
+  <si>
+    <t>-0.87(0.029)</t>
+  </si>
+  <si>
+    <t>-0.44(0.343)</t>
+  </si>
+  <si>
+    <t>-0.65(0.114)</t>
+  </si>
+  <si>
+    <t>-0.11(0.886)</t>
+  </si>
+  <si>
+    <t>0.22(0.686)</t>
+  </si>
+  <si>
+    <t>-0.55(0.200)</t>
+  </si>
+  <si>
+    <t>0.44(0.343)</t>
+  </si>
+  <si>
+    <t>0.65(0.114)</t>
+  </si>
+  <si>
+    <t>0.55(0.200)</t>
+  </si>
+  <si>
+    <t>speech_2</t>
+  </si>
+  <si>
+    <t>0.42(0.296)</t>
+  </si>
+  <si>
+    <t>0.74(0.045)</t>
+  </si>
+  <si>
+    <t>0.75(0.037)</t>
+  </si>
+  <si>
+    <t>-0.28(0.489)</t>
+  </si>
+  <si>
+    <t>-0.58(0.138)</t>
+  </si>
+  <si>
+    <t>-0.64(0.096)</t>
+  </si>
+  <si>
+    <t>-0.52(0.193)</t>
+  </si>
+  <si>
+    <t>0.20(0.636)</t>
+  </si>
+  <si>
+    <t>-0.64(0.096)</t>
+  </si>
+  <si>
+    <t>-0.52(0.193)</t>
+  </si>
+  <si>
+    <t>0.25(0.557)</t>
+  </si>
+  <si>
+    <t>-0.70(0.062)</t>
+  </si>
+  <si>
+    <t>-0.58(0.138)</t>
+  </si>
+  <si>
+    <t>-0.11(0.800)</t>
+  </si>
+  <si>
+    <t>0.26(0.533)</t>
+  </si>
+  <si>
+    <t>-0.64(0.096)</t>
+  </si>
+  <si>
+    <t>0.20(0.636)</t>
+  </si>
+  <si>
+    <t>0.62(0.115)</t>
+  </si>
+  <si>
+    <t>0.42(0.296)</t>
+  </si>
+  <si>
+    <t>expression</t>
+  </si>
+  <si>
+    <t>0.26(0.543)</t>
+  </si>
+  <si>
+    <t>0.82(0.024)</t>
+  </si>
+  <si>
+    <t>0.72(0.057)</t>
+  </si>
+  <si>
+    <t>-0.67(0.081)</t>
+  </si>
+  <si>
+    <t>-0.41(0.319)</t>
+  </si>
+  <si>
+    <t>-0.36(0.386)</t>
+  </si>
+  <si>
+    <t>-0.39(0.352)</t>
+  </si>
+  <si>
+    <t>0.31(0.467)</t>
+  </si>
+  <si>
+    <t>-0.64(0.095)</t>
+  </si>
+  <si>
+    <t>-0.44(0.281)</t>
+  </si>
+  <si>
+    <t>0.44(0.281)</t>
+  </si>
+  <si>
+    <t>-0.77(0.043)</t>
+  </si>
+  <si>
+    <t>-0.41(0.319)</t>
+  </si>
+  <si>
+    <t>-0.57(0.157)</t>
+  </si>
+  <si>
+    <t>0.08(0.867)</t>
+  </si>
+  <si>
+    <t>0.41(0.319)</t>
+  </si>
+  <si>
+    <t>-0.54(0.176)</t>
+  </si>
+  <si>
+    <t>0.21(0.643)</t>
+  </si>
+  <si>
+    <t>0.77(0.043)</t>
+  </si>
+  <si>
+    <t>0.33(0.424)</t>
+  </si>
+  <si>
+    <t>mean_figuer_tapping</t>
+  </si>
+  <si>
+    <t>0.51(0.207)</t>
+  </si>
+  <si>
+    <t>0.78(0.030)</t>
+  </si>
+  <si>
+    <t>0.85(0.012)</t>
+  </si>
+  <si>
+    <t>-0.32(0.455)</t>
+  </si>
+  <si>
+    <t>-0.54(0.178)</t>
+  </si>
+  <si>
+    <t>-0.63(0.101)</t>
+  </si>
+  <si>
+    <t>-0.66(0.089)</t>
+  </si>
+  <si>
+    <t>-0.63(0.101)</t>
+  </si>
+  <si>
+    <t>0.37(0.387)</t>
+  </si>
+  <si>
+    <t>-0.76(0.040)</t>
+  </si>
+  <si>
+    <t>-0.73(0.049)</t>
+  </si>
+  <si>
+    <t>-0.59(0.137)</t>
+  </si>
+  <si>
+    <t>0.41(0.320)</t>
+  </si>
+  <si>
+    <t>-0.81(0.025)</t>
+  </si>
+  <si>
+    <t>-0.54(0.178)</t>
+  </si>
+  <si>
+    <t>-0.63(0.101)</t>
+  </si>
+  <si>
+    <t>-0.29(0.490)</t>
+  </si>
+  <si>
+    <t>0.05(0.929)</t>
+  </si>
+  <si>
+    <t>-0.59(0.137)</t>
+  </si>
+  <si>
+    <t>0.44(0.285)</t>
+  </si>
+  <si>
+    <t>0.46(0.257)</t>
+  </si>
+  <si>
+    <t>0.66(0.089)</t>
+  </si>
+  <si>
+    <t>mean_hand_movements</t>
+  </si>
+  <si>
+    <t>0.34(0.417)</t>
+  </si>
+  <si>
+    <t>0.70(0.063)</t>
+  </si>
+  <si>
+    <t>0.72(0.050)</t>
+  </si>
+  <si>
+    <t>-0.41(0.318)</t>
+  </si>
+  <si>
+    <t>-0.53(0.182)</t>
+  </si>
+  <si>
+    <t>-0.49(0.215)</t>
+  </si>
+  <si>
+    <t>-0.52(0.195)</t>
+  </si>
+  <si>
+    <t>-0.49(0.215)</t>
+  </si>
+  <si>
+    <t>0.30(0.469)</t>
+  </si>
+  <si>
+    <t>-0.71(0.055)</t>
+  </si>
+  <si>
+    <t>-0.53(0.182)</t>
+  </si>
+  <si>
+    <t>0.37(0.363)</t>
+  </si>
+  <si>
+    <t>-0.78(0.026)</t>
+  </si>
+  <si>
+    <t>-0.53(0.182)</t>
+  </si>
+  <si>
+    <t>-0.60(0.120)</t>
+  </si>
+  <si>
+    <t>-0.01(0.988)</t>
+  </si>
+  <si>
+    <t>0.34(0.417)</t>
+  </si>
+  <si>
+    <t>-0.60(0.120)</t>
+  </si>
+  <si>
+    <t>0.14(0.736)</t>
+  </si>
+  <si>
+    <t>0.75(0.040)</t>
+  </si>
+  <si>
+    <t>0.77(0.033)</t>
+  </si>
+  <si>
+    <t>0.34(0.417)</t>
+  </si>
+  <si>
+    <t>mean_pronation_supination</t>
+  </si>
+  <si>
+    <t>0.27(0.517)</t>
+  </si>
+  <si>
+    <t>0.72(0.054)</t>
+  </si>
+  <si>
+    <t>0.67(0.081)</t>
+  </si>
+  <si>
+    <t>-0.32(0.442)</t>
+  </si>
+  <si>
+    <t>-0.52(0.194)</t>
+  </si>
+  <si>
+    <t>-0.57(0.148)</t>
+  </si>
+  <si>
+    <t>-0.55(0.170)</t>
+  </si>
+  <si>
+    <t>-0.47(0.240)</t>
+  </si>
+  <si>
+    <t>0.36(0.371)</t>
+  </si>
+  <si>
+    <t>-0.72(0.054)</t>
+  </si>
+  <si>
+    <t>-0.68(0.074)</t>
+  </si>
+  <si>
+    <t>-0.47(0.240)</t>
+  </si>
+  <si>
+    <t>0.38(0.358)</t>
+  </si>
+  <si>
+    <t>-0.76(0.036)</t>
+  </si>
+  <si>
+    <t>-0.52(0.194)</t>
+  </si>
+  <si>
+    <t>-0.11(0.800)</t>
+  </si>
+  <si>
+    <t>0.25(0.546)</t>
+  </si>
+  <si>
+    <t>-0.57(0.148)</t>
+  </si>
+  <si>
+    <t>0.21(0.626)</t>
+  </si>
+  <si>
+    <t>0.65(0.087)</t>
+  </si>
+  <si>
+    <t>0.69(0.068)</t>
+  </si>
+  <si>
+    <t>0.36(0.371)</t>
+  </si>
+  <si>
+    <t>mean_toe_tapping</t>
+  </si>
+  <si>
+    <t>-0.65(0.107)</t>
+  </si>
+  <si>
+    <t>-0.51(0.214)</t>
+  </si>
+  <si>
+    <t>-0.76(0.036)</t>
+  </si>
+  <si>
+    <t>0.20(0.643)</t>
+  </si>
+  <si>
+    <t>0.23(0.571)</t>
+  </si>
+  <si>
+    <t>0.41(0.357)</t>
+  </si>
+  <si>
+    <t>0.59(0.143)</t>
+  </si>
+  <si>
+    <t>-0.48(0.250)</t>
+  </si>
+  <si>
+    <t>0.59(0.143)</t>
+  </si>
+  <si>
+    <t>0.45(0.286)</t>
+  </si>
+  <si>
+    <t>-0.48(0.250)</t>
+  </si>
+  <si>
+    <t>0.59(0.143)</t>
+  </si>
+  <si>
+    <t>0.23(0.571)</t>
+  </si>
+  <si>
+    <t>0.45(0.286)</t>
+  </si>
+  <si>
+    <t>0.48(0.250)</t>
+  </si>
+  <si>
+    <t>0.34(0.393)</t>
+  </si>
+  <si>
+    <t>0.23(0.571)</t>
+  </si>
+  <si>
+    <t>-0.73(0.071)</t>
+  </si>
+  <si>
+    <t>0.05(0.929)</t>
+  </si>
+  <si>
+    <t>-0.73(0.071)</t>
+  </si>
+  <si>
+    <t>mean_leg_agility</t>
+  </si>
+  <si>
+    <t>-0.59(0.143)</t>
+  </si>
+  <si>
+    <t>-0.48(0.250)</t>
+  </si>
+  <si>
+    <t>-0.73(0.071)</t>
+  </si>
+  <si>
+    <t>0.30(0.500)</t>
+  </si>
+  <si>
+    <t>0.26(0.536)</t>
+  </si>
+  <si>
+    <t>0.34(0.393)</t>
+  </si>
+  <si>
+    <t>0.65(0.107)</t>
+  </si>
+  <si>
+    <t>-0.51(0.214)</t>
+  </si>
+  <si>
+    <t>0.65(0.107)</t>
+  </si>
+  <si>
+    <t>0.55(0.179)</t>
+  </si>
+  <si>
+    <t>-0.51(0.214)</t>
+  </si>
+  <si>
+    <t>0.65(0.107)</t>
+  </si>
+  <si>
+    <t>0.26(0.536)</t>
+  </si>
+  <si>
+    <t>0.55(0.179)</t>
+  </si>
+  <si>
+    <t>0.51(0.214)</t>
+  </si>
+  <si>
+    <t>0.41(0.357)</t>
+  </si>
+  <si>
+    <t>0.26(0.536)</t>
+  </si>
+  <si>
+    <t>-0.76(0.036)</t>
+  </si>
+  <si>
+    <t>-0.05(0.929)</t>
+  </si>
+  <si>
+    <t>-0.76(0.036)</t>
+  </si>
+  <si>
+    <t>arising</t>
+  </si>
+  <si>
+    <t>0.33(0.415)</t>
+  </si>
+  <si>
+    <t>0.75(0.037)</t>
+  </si>
+  <si>
+    <t>0.73(0.050)</t>
+  </si>
+  <si>
+    <t>-0.58(0.138)</t>
+  </si>
+  <si>
+    <t>-0.72(0.056)</t>
+  </si>
+  <si>
+    <t>-0.59(0.130)</t>
+  </si>
+  <si>
+    <t>-0.68(0.079)</t>
+  </si>
+  <si>
+    <t>-0.72(0.056)</t>
+  </si>
+  <si>
+    <t>0.30(0.471)</t>
+  </si>
+  <si>
+    <t>-0.80(0.024)</t>
+  </si>
+  <si>
+    <t>-0.84(0.014)</t>
+  </si>
+  <si>
+    <t>-0.78(0.030)</t>
+  </si>
+  <si>
+    <t>0.27(0.508)</t>
+  </si>
+  <si>
+    <t>-0.86(0.011)</t>
+  </si>
+  <si>
+    <t>-0.72(0.056)</t>
+  </si>
+  <si>
+    <t>-0.84(0.014)</t>
+  </si>
+  <si>
+    <t>-0.25(0.557)</t>
+  </si>
+  <si>
+    <t>0.06(0.892)</t>
+  </si>
+  <si>
+    <t>-0.78(0.030)</t>
+  </si>
+  <si>
+    <t>0.41(0.312)</t>
+  </si>
+  <si>
+    <t>0.91(0.004)</t>
+  </si>
+  <si>
+    <t>0.44(0.265)</t>
+  </si>
+  <si>
+    <t>posture</t>
+  </si>
+  <si>
+    <t>0.01(0.989)</t>
+  </si>
+  <si>
+    <t>0.80(0.023)</t>
+  </si>
+  <si>
+    <t>0.56(0.161)</t>
+  </si>
+  <si>
+    <t>-0.90(0.005)</t>
+  </si>
+  <si>
+    <t>-0.27(0.505)</t>
+  </si>
+  <si>
+    <t>-0.15(0.735)</t>
+  </si>
+  <si>
+    <t>-0.38(0.340)</t>
+  </si>
+  <si>
+    <t>-0.35(0.395)</t>
+  </si>
+  <si>
+    <t>0.47(0.242)</t>
+  </si>
+  <si>
+    <t>-0.65(0.088)</t>
+  </si>
+  <si>
+    <t>-0.62(0.117)</t>
+  </si>
+  <si>
+    <t>-0.41(0.310)</t>
+  </si>
+  <si>
+    <t>0.57(0.146)</t>
+  </si>
+  <si>
+    <t>-0.79(0.026)</t>
+  </si>
+  <si>
+    <t>-0.27(0.505)</t>
+  </si>
+  <si>
+    <t>-0.54(0.174)</t>
+  </si>
+  <si>
+    <t>-0.02(0.967)</t>
+  </si>
+  <si>
+    <t>0.21(0.614)</t>
+  </si>
+  <si>
+    <t>-0.41(0.310)</t>
+  </si>
+  <si>
+    <t>0.41(0.310)</t>
+  </si>
+  <si>
+    <t>0.74(0.049)</t>
+  </si>
+  <si>
+    <t>0.40(0.326)</t>
+  </si>
+  <si>
+    <t>body_bradykinesia</t>
+  </si>
+  <si>
+    <t>0.20(0.645)</t>
+  </si>
+  <si>
+    <t>0.70(0.071)</t>
+  </si>
+  <si>
+    <t>0.63(0.111)</t>
+  </si>
+  <si>
+    <t>-0.53(0.191)</t>
+  </si>
+  <si>
+    <t>-0.73(0.054)</t>
+  </si>
+  <si>
+    <t>-0.58(0.148)</t>
+  </si>
+  <si>
+    <t>-0.70(0.071)</t>
+  </si>
+  <si>
+    <t>0.28(0.525)</t>
+  </si>
+  <si>
+    <t>-0.80(0.030)</t>
+  </si>
+  <si>
+    <t>-0.78(0.039)</t>
+  </si>
+  <si>
+    <t>0.25(0.546)</t>
+  </si>
+  <si>
+    <t>-0.85(0.016)</t>
+  </si>
+  <si>
+    <t>-0.73(0.054)</t>
+  </si>
+  <si>
+    <t>-0.83(0.020)</t>
+  </si>
+  <si>
+    <t>-0.28(0.525)</t>
+  </si>
+  <si>
+    <t>0.03(0.986)</t>
+  </si>
+  <si>
+    <t>-0.78(0.039)</t>
+  </si>
+  <si>
+    <t>0.35(0.391)</t>
+  </si>
+  <si>
+    <t>0.90(0.007)</t>
+  </si>
+  <si>
+    <t>0.48(0.230)</t>
+  </si>
+  <si>
+    <t>hand_tremor</t>
+  </si>
+  <si>
+    <t>0.26(0.536)</t>
+  </si>
+  <si>
+    <t>0.57(0.149)</t>
+  </si>
+  <si>
+    <t>0.58(0.138)</t>
+  </si>
+  <si>
+    <t>-0.37(0.367)</t>
+  </si>
+  <si>
+    <t>-0.12(0.780)</t>
+  </si>
+  <si>
+    <t>-0.28(0.493)</t>
+  </si>
+  <si>
+    <t>-0.52(0.195)</t>
+  </si>
+  <si>
+    <t>-0.36(0.377)</t>
+  </si>
+  <si>
+    <t>0.86(0.010)</t>
+  </si>
+  <si>
+    <t>-0.74(0.044)</t>
+  </si>
+  <si>
+    <t>-0.69(0.065)</t>
+  </si>
+  <si>
+    <t>-0.25(0.556)</t>
+  </si>
+  <si>
+    <t>0.75(0.039)</t>
+  </si>
+  <si>
+    <t>-0.74(0.044)</t>
+  </si>
+  <si>
+    <t>-0.12(0.780)</t>
+  </si>
+  <si>
+    <t>-0.25(0.556)</t>
+  </si>
+  <si>
+    <t>-0.04(0.942)</t>
+  </si>
+  <si>
+    <t>-0.12(0.780)</t>
+  </si>
+  <si>
+    <t>0.59(0.129)</t>
+  </si>
+  <si>
+    <t>0.30(0.470)</t>
+  </si>
+  <si>
+    <t>0.41(0.318)</t>
+  </si>
+  <si>
+    <t>0.30(0.470)</t>
+  </si>
+  <si>
+    <t>mean_kinetic_tremor_hands</t>
+  </si>
+  <si>
+    <t>0.33(0.422)</t>
+  </si>
+  <si>
+    <t>0.64(0.098)</t>
+  </si>
+  <si>
+    <t>0.66(0.080)</t>
+  </si>
+  <si>
+    <t>-0.18(0.663)</t>
+  </si>
+  <si>
+    <t>-0.36(0.385)</t>
+  </si>
+  <si>
+    <t>-0.48(0.237)</t>
+  </si>
+  <si>
+    <t>-0.43(0.291)</t>
+  </si>
+  <si>
+    <t>-0.34(0.401)</t>
+  </si>
+  <si>
+    <t>0.34(0.401)</t>
+  </si>
+  <si>
+    <t>-0.60(0.124)</t>
+  </si>
+  <si>
+    <t>-0.55(0.167)</t>
+  </si>
+  <si>
+    <t>-0.31(0.459)</t>
+  </si>
+  <si>
+    <t>0.42(0.304)</t>
+  </si>
+  <si>
+    <t>-0.65(0.090)</t>
+  </si>
+  <si>
+    <t>-0.36(0.385)</t>
+  </si>
+  <si>
+    <t>-0.02(0.963)</t>
+  </si>
+  <si>
+    <t>0.32(0.437)</t>
+  </si>
+  <si>
+    <t>-0.41(0.322)</t>
+  </si>
+  <si>
+    <t>0.12(0.775)</t>
+  </si>
+  <si>
+    <t>0.42(0.304)</t>
+  </si>
+  <si>
+    <t>0.45(0.265)</t>
+  </si>
+  <si>
+    <t>0.36(0.385)</t>
+  </si>
+  <si>
+    <t>mean_rest_tremor_amplitude_ue</t>
+  </si>
+  <si>
+    <t>0.38(0.343)</t>
+  </si>
+  <si>
+    <t>0.91(0.005)</t>
+  </si>
+  <si>
+    <t>0.83(0.019)</t>
+  </si>
+  <si>
+    <t>-0.60(0.126)</t>
+  </si>
+  <si>
+    <t>-0.68(0.074)</t>
+  </si>
+  <si>
+    <t>-0.74(0.048)</t>
+  </si>
+  <si>
+    <t>0.43(0.276)</t>
+  </si>
+  <si>
+    <t>-0.87(0.010)</t>
+  </si>
+  <si>
+    <t>-0.74(0.048)</t>
+  </si>
+  <si>
+    <t>0.40(0.326)</t>
+  </si>
+  <si>
+    <t>-0.93(0.002)</t>
+  </si>
+  <si>
+    <t>-0.68(0.074)</t>
+  </si>
+  <si>
+    <t>-0.80(0.026)</t>
+  </si>
+  <si>
+    <t>-0.37(0.355)</t>
+  </si>
+  <si>
+    <t>-0.03(0.969)</t>
+  </si>
+  <si>
+    <t>-0.74(0.048)</t>
+  </si>
+  <si>
+    <t>0.60(0.126)</t>
+  </si>
+  <si>
+    <t>0.78(0.036)</t>
+  </si>
+  <si>
+    <t>0.61(0.112)</t>
+  </si>
+  <si>
+    <t>rest_tremor_ampl_lipjaw</t>
+  </si>
+  <si>
+    <t>0.44(0.343)</t>
+  </si>
+  <si>
+    <t>0.87(0.029)</t>
+  </si>
+  <si>
+    <t>-0.65(0.114)</t>
+  </si>
+  <si>
+    <t>-0.44(0.343)</t>
+  </si>
+  <si>
+    <t>-0.55(0.200)</t>
+  </si>
+  <si>
+    <t>0.44(0.343)</t>
+  </si>
+  <si>
+    <t>-0.76(0.057)</t>
+  </si>
+  <si>
+    <t>-0.55(0.200)</t>
+  </si>
+  <si>
+    <t>0.55(0.200)</t>
+  </si>
+  <si>
+    <t>-0.87(0.029)</t>
+  </si>
+  <si>
+    <t>-0.44(0.343)</t>
+  </si>
+  <si>
+    <t>-0.65(0.114)</t>
+  </si>
+  <si>
+    <t>-0.11(0.886)</t>
+  </si>
+  <si>
+    <t>0.22(0.686)</t>
+  </si>
+  <si>
+    <t>-0.55(0.200)</t>
+  </si>
+  <si>
+    <t>0.44(0.343)</t>
+  </si>
+  <si>
+    <t>0.65(0.114)</t>
+  </si>
+  <si>
+    <t>0.55(0.200)</t>
+  </si>
+  <si>
+    <t>constancy_rest</t>
+  </si>
+  <si>
+    <t>0.32(0.435)</t>
+  </si>
+  <si>
+    <t>0.91(0.005)</t>
+  </si>
+  <si>
+    <t>0.77(0.037)</t>
+  </si>
+  <si>
+    <t>-0.59(0.130)</t>
+  </si>
+  <si>
+    <t>-0.57(0.149)</t>
+  </si>
+  <si>
+    <t>-0.62(0.112)</t>
+  </si>
+  <si>
+    <t>-0.56(0.158)</t>
+  </si>
+  <si>
+    <t>0.37(0.355)</t>
+  </si>
+  <si>
+    <t>-0.73(0.050)</t>
+  </si>
+  <si>
+    <t>-0.56(0.158)</t>
+  </si>
+  <si>
+    <t>0.36(0.375)</t>
+  </si>
+  <si>
+    <t>-0.82(0.021)</t>
+  </si>
+  <si>
+    <t>-0.57(0.149)</t>
+  </si>
+  <si>
+    <t>-0.64(0.094)</t>
+  </si>
+  <si>
+    <t>-0.21(0.617)</t>
+  </si>
+  <si>
+    <t>0.15(0.727)</t>
+  </si>
+  <si>
+    <t>-0.65(0.088)</t>
+  </si>
+  <si>
+    <t>0.47(0.240)</t>
+  </si>
+  <si>
+    <t>0.74(0.045)</t>
+  </si>
+  <si>
+    <t>0.46(0.258)</t>
+  </si>
+  <si>
+    <t>time_with_dyskinesia</t>
+  </si>
+  <si>
+    <t>-0.24(0.586)</t>
+  </si>
+  <si>
+    <t>0.24(0.586)</t>
+  </si>
+  <si>
+    <t>0.10(0.861)</t>
+  </si>
+  <si>
+    <t>-0.39(0.361)</t>
+  </si>
+  <si>
+    <t>-0.15(0.761)</t>
+  </si>
+  <si>
+    <t>0.10(0.861)</t>
+  </si>
+  <si>
+    <t>-0.05(0.946)</t>
+  </si>
+  <si>
+    <t>0.00(1.000)</t>
+  </si>
+  <si>
+    <t>-0.24(0.586)</t>
+  </si>
+  <si>
+    <t>-0.20(0.672)</t>
+  </si>
+  <si>
+    <t>-0.15(0.761)</t>
+  </si>
+  <si>
+    <t>0.20(0.672)</t>
+  </si>
+  <si>
+    <t>-0.34(0.422)</t>
+  </si>
+  <si>
+    <t>-0.15(0.761)</t>
+  </si>
+  <si>
+    <t>-0.24(0.586)</t>
+  </si>
+  <si>
+    <t>0.34(0.422)</t>
+  </si>
+  <si>
+    <t>0.49(0.247)</t>
+  </si>
+  <si>
+    <t>-0.24(0.586)</t>
+  </si>
+  <si>
+    <t>-0.34(0.422)</t>
+  </si>
+  <si>
+    <t>0.59(0.153)</t>
+  </si>
+  <si>
+    <t>0.00(1.000)</t>
+  </si>
+  <si>
+    <t>function_dyskinesias</t>
+  </si>
+  <si>
+    <t>0.10(0.845)</t>
+  </si>
+  <si>
+    <t>0.63(0.113)</t>
+  </si>
+  <si>
+    <t>0.55(0.177)</t>
+  </si>
+  <si>
+    <t>-0.50(0.218)</t>
+  </si>
+  <si>
+    <t>-0.35(0.393)</t>
+  </si>
+  <si>
+    <t>-0.55(0.177)</t>
+  </si>
+  <si>
+    <t>-0.50(0.218)</t>
+  </si>
+  <si>
+    <t>0.28(0.509)</t>
+  </si>
+  <si>
+    <t>-0.70(0.068)</t>
+  </si>
+  <si>
+    <t>-0.65(0.095)</t>
+  </si>
+  <si>
+    <t>-0.58(0.146)</t>
+  </si>
+  <si>
+    <t>0.38(0.359)</t>
+  </si>
+  <si>
+    <t>-0.78(0.034)</t>
+  </si>
+  <si>
+    <t>-0.50(0.218)</t>
+  </si>
+  <si>
+    <t>-0.65(0.095)</t>
+  </si>
+  <si>
+    <t>-0.10(0.845)</t>
+  </si>
+  <si>
+    <t>0.18(0.702)</t>
+  </si>
+  <si>
+    <t>-0.58(0.146)</t>
+  </si>
+  <si>
+    <t>0.18(0.702)</t>
+  </si>
+  <si>
+    <t>0.73(0.050)</t>
+  </si>
+  <si>
+    <t>0.48(0.248)</t>
+  </si>
+  <si>
+    <t>time_in_offstate</t>
+  </si>
+  <si>
+    <t>0.09(0.852)</t>
+  </si>
+  <si>
+    <t>0.74(0.042)</t>
+  </si>
+  <si>
+    <t>0.55(0.165)</t>
+  </si>
+  <si>
+    <t>-0.45(0.265)</t>
+  </si>
+  <si>
+    <t>-0.64(0.095)</t>
+  </si>
+  <si>
+    <t>-0.59(0.132)</t>
+  </si>
+  <si>
+    <t>-0.60(0.124)</t>
+  </si>
+  <si>
+    <t>-0.54(0.175)</t>
+  </si>
+  <si>
+    <t>0.33(0.425)</t>
+  </si>
+  <si>
+    <t>-0.75(0.039)</t>
+  </si>
+  <si>
+    <t>-0.71(0.053)</t>
+  </si>
+  <si>
+    <t>-0.59(0.132)</t>
+  </si>
+  <si>
+    <t>0.28(0.501)</t>
+  </si>
+  <si>
+    <t>-0.80(0.022)</t>
+  </si>
+  <si>
+    <t>-0.64(0.095)</t>
+  </si>
+  <si>
+    <t>-0.20(0.646)</t>
+  </si>
+  <si>
+    <t>0.15(0.728)</t>
+  </si>
+  <si>
+    <t>-0.69(0.066)</t>
+  </si>
+  <si>
+    <t>0.27(0.517)</t>
+  </si>
+  <si>
+    <t>0.85(0.011)</t>
+  </si>
+  <si>
+    <t>0.87(0.008)</t>
+  </si>
+  <si>
+    <t>0.36(0.388)</t>
+  </si>
+  <si>
+    <t>functional_fluctuations</t>
+  </si>
+  <si>
+    <t>-0.12(0.780)</t>
+  </si>
+  <si>
+    <t>0.05(0.915)</t>
+  </si>
+  <si>
+    <t>0.00(1.000)</t>
+  </si>
+  <si>
+    <t>0.02(0.970)</t>
+  </si>
+  <si>
+    <t>-0.15(0.735)</t>
+  </si>
+  <si>
+    <t>-0.02(0.970)</t>
+  </si>
+  <si>
+    <t>0.16(0.705)</t>
+  </si>
+  <si>
+    <t>-0.30(0.470)</t>
+  </si>
+  <si>
+    <t>0.04(0.942)</t>
+  </si>
+  <si>
+    <t>-0.14(0.751)</t>
+  </si>
+  <si>
+    <t>-0.02(0.970)</t>
+  </si>
+  <si>
+    <t>-0.15(0.735)</t>
+  </si>
+  <si>
+    <t>-0.02(0.970)</t>
+  </si>
+  <si>
+    <t>0.48(0.227)</t>
+  </si>
+  <si>
+    <t>0.64(0.096)</t>
+  </si>
+  <si>
+    <t>-0.21(0.620)</t>
+  </si>
+  <si>
+    <t>-0.64(0.096)</t>
+  </si>
+  <si>
+    <t>0.42(0.298)</t>
+  </si>
+  <si>
+    <t>-0.28(0.495)</t>
+  </si>
+  <si>
+    <t>complexity_fluctuations</t>
+  </si>
+  <si>
+    <t>0.32(0.439)</t>
+  </si>
+  <si>
+    <t>0.82(0.020)</t>
+  </si>
+  <si>
+    <t>0.77(0.036)</t>
+  </si>
+  <si>
+    <t>-0.59(0.129)</t>
+  </si>
+  <si>
+    <t>-0.52(0.195)</t>
+  </si>
+  <si>
+    <t>-0.63(0.101)</t>
+  </si>
+  <si>
+    <t>-0.58(0.138)</t>
+  </si>
+  <si>
+    <t>0.57(0.149)</t>
+  </si>
+  <si>
+    <t>-0.85(0.012)</t>
+  </si>
+  <si>
+    <t>-0.58(0.138)</t>
+  </si>
+  <si>
+    <t>0.53(0.177)</t>
+  </si>
+  <si>
+    <t>-0.91(0.004)</t>
+  </si>
+  <si>
+    <t>-0.52(0.195)</t>
+  </si>
+  <si>
+    <t>-0.64(0.092)</t>
+  </si>
+  <si>
+    <t>-0.19(0.657)</t>
+  </si>
+  <si>
+    <t>0.15(0.737)</t>
+  </si>
+  <si>
+    <t>-0.58(0.138)</t>
+  </si>
+  <si>
+    <t>0.47(0.246)</t>
+  </si>
+  <si>
+    <t>0.79(0.027)</t>
+  </si>
+  <si>
+    <t>0.84(0.014)</t>
+  </si>
+  <si>
+    <t>0.38(0.349)</t>
+  </si>
+  <si>
+    <t>painful_offstate_dys</t>
+  </si>
+  <si>
+    <t>-0.12(0.793)</t>
+  </si>
+  <si>
+    <t>0.73(0.050)</t>
+  </si>
+  <si>
+    <t>0.44(0.279)</t>
+  </si>
+  <si>
+    <t>-0.76(0.036)</t>
+  </si>
+  <si>
+    <t>-0.48(0.229)</t>
+  </si>
+  <si>
+    <t>-0.30(0.464)</t>
+  </si>
+  <si>
+    <t>-0.55(0.179)</t>
+  </si>
+  <si>
+    <t>-0.48(0.229)</t>
+  </si>
+  <si>
+    <t>0.39(0.336)</t>
+  </si>
+  <si>
+    <t>-0.73(0.050)</t>
+  </si>
+  <si>
+    <t>-0.67(0.079)</t>
+  </si>
+  <si>
+    <t>-0.57(0.150)</t>
+  </si>
+  <si>
+    <t>0.42(0.300)</t>
+  </si>
+  <si>
+    <t>-0.82(0.021)</t>
+  </si>
+  <si>
+    <t>-0.48(0.229)</t>
+  </si>
+  <si>
+    <t>-0.67(0.079)</t>
+  </si>
+  <si>
+    <t>-0.18(0.679)</t>
+  </si>
+  <si>
+    <t>0.07(0.886)</t>
+  </si>
+  <si>
+    <t>-0.57(0.150)</t>
+  </si>
+  <si>
+    <t>0.37(0.386)</t>
+  </si>
+  <si>
+    <t>0.85(0.014)</t>
+  </si>
+  <si>
+    <t>0.46(0.264)</t>
+  </si>
   <si>
     <t>ActivityFeature</t>
   </si>
@@ -3278,3506 +6443,3506 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>0</v>
+        <v>1055</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>24</v>
+        <v>1079</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>44</v>
+        <v>1099</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>66</v>
+        <v>1121</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>89</v>
+        <v>1144</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>111</v>
+        <v>1166</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>134</v>
+        <v>1189</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>155</v>
+        <v>1210</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>176</v>
+        <v>1231</v>
       </c>
       <c r="J1" s="0" t="s">
-        <v>198</v>
+        <v>1253</v>
       </c>
       <c r="K1" s="0" t="s">
-        <v>221</v>
+        <v>1276</v>
       </c>
       <c r="L1" s="0" t="s">
-        <v>245</v>
+        <v>1300</v>
       </c>
       <c r="M1" s="0" t="s">
-        <v>266</v>
+        <v>1321</v>
       </c>
       <c r="N1" s="0" t="s">
-        <v>289</v>
+        <v>1344</v>
       </c>
       <c r="O1" s="0" t="s">
-        <v>312</v>
+        <v>1367</v>
       </c>
       <c r="P1" s="0" t="s">
-        <v>335</v>
+        <v>1390</v>
       </c>
       <c r="Q1" s="0" t="s">
-        <v>359</v>
+        <v>1414</v>
       </c>
       <c r="R1" s="0" t="s">
-        <v>378</v>
+        <v>1433</v>
       </c>
       <c r="S1" s="0" t="s">
-        <v>401</v>
+        <v>1456</v>
       </c>
       <c r="T1" s="0" t="s">
-        <v>423</v>
+        <v>1478</v>
       </c>
       <c r="U1" s="0" t="s">
-        <v>445</v>
+        <v>1500</v>
       </c>
       <c r="V1" s="0" t="s">
-        <v>468</v>
+        <v>1523</v>
       </c>
       <c r="W1" s="0" t="s">
-        <v>490</v>
+        <v>1545</v>
       </c>
       <c r="X1" s="0" t="s">
-        <v>512</v>
+        <v>1567</v>
       </c>
       <c r="Y1" s="0" t="s">
-        <v>535</v>
+        <v>1590</v>
       </c>
       <c r="Z1" s="0" t="s">
-        <v>557</v>
+        <v>1612</v>
       </c>
       <c r="AA1" s="0" t="s">
-        <v>579</v>
+        <v>1634</v>
       </c>
       <c r="AB1" s="0" t="s">
-        <v>598</v>
+        <v>1653</v>
       </c>
       <c r="AC1" s="0" t="s">
-        <v>618</v>
+        <v>1673</v>
       </c>
       <c r="AD1" s="0" t="s">
-        <v>639</v>
+        <v>1694</v>
       </c>
       <c r="AE1" s="0" t="s">
-        <v>662</v>
+        <v>1717</v>
       </c>
       <c r="AF1" s="0" t="s">
-        <v>685</v>
+        <v>1740</v>
       </c>
       <c r="AG1" s="0" t="s">
-        <v>708</v>
+        <v>1763</v>
       </c>
       <c r="AH1" s="0" t="s">
-        <v>729</v>
+        <v>1784</v>
       </c>
       <c r="AI1" s="0" t="s">
-        <v>750</v>
+        <v>1805</v>
       </c>
       <c r="AJ1" s="0" t="s">
-        <v>773</v>
+        <v>1828</v>
       </c>
       <c r="AK1" s="0" t="s">
-        <v>796</v>
+        <v>1851</v>
       </c>
       <c r="AL1" s="0" t="s">
-        <v>817</v>
+        <v>1872</v>
       </c>
       <c r="AM1" s="0" t="s">
-        <v>840</v>
+        <v>1895</v>
       </c>
       <c r="AN1" s="0" t="s">
-        <v>863</v>
+        <v>1918</v>
       </c>
       <c r="AO1" s="0" t="s">
-        <v>883</v>
+        <v>1938</v>
       </c>
       <c r="AP1" s="0" t="s">
-        <v>902</v>
+        <v>1957</v>
       </c>
       <c r="AQ1" s="0" t="s">
-        <v>923</v>
+        <v>1978</v>
       </c>
       <c r="AR1" s="0" t="s">
-        <v>945</v>
+        <v>2000</v>
       </c>
       <c r="AS1" s="0" t="s">
-        <v>967</v>
+        <v>2022</v>
       </c>
       <c r="AT1" s="0" t="s">
-        <v>990</v>
+        <v>2045</v>
       </c>
       <c r="AU1" s="0" t="s">
-        <v>1010</v>
+        <v>2065</v>
       </c>
       <c r="AV1" s="0" t="s">
-        <v>1032</v>
+        <v>2087</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0" t="s">
-        <v>1</v>
+        <v>1056</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>25</v>
+        <v>1080</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>45</v>
+        <v>1100</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>67</v>
+        <v>1122</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>90</v>
+        <v>1145</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>112</v>
+        <v>1167</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>135</v>
+        <v>1190</v>
       </c>
       <c r="H2" s="0" t="s">
-        <v>156</v>
+        <v>1211</v>
       </c>
       <c r="I2" s="0" t="s">
-        <v>177</v>
+        <v>1232</v>
       </c>
       <c r="J2" s="0" t="s">
-        <v>199</v>
+        <v>1254</v>
       </c>
       <c r="K2" s="0" t="s">
-        <v>222</v>
+        <v>1277</v>
       </c>
       <c r="L2" s="0" t="s">
-        <v>246</v>
+        <v>1301</v>
       </c>
       <c r="M2" s="0" t="s">
-        <v>267</v>
+        <v>1322</v>
       </c>
       <c r="N2" s="0" t="s">
-        <v>290</v>
+        <v>1345</v>
       </c>
       <c r="O2" s="0" t="s">
-        <v>313</v>
+        <v>1368</v>
       </c>
       <c r="P2" s="0" t="s">
-        <v>336</v>
+        <v>1391</v>
       </c>
       <c r="Q2" s="0" t="s">
-        <v>360</v>
+        <v>1415</v>
       </c>
       <c r="R2" s="0" t="s">
-        <v>379</v>
+        <v>1434</v>
       </c>
       <c r="S2" s="0" t="s">
-        <v>402</v>
+        <v>1457</v>
       </c>
       <c r="T2" s="0" t="s">
-        <v>424</v>
+        <v>1479</v>
       </c>
       <c r="U2" s="0" t="s">
-        <v>446</v>
+        <v>1501</v>
       </c>
       <c r="V2" s="0" t="s">
-        <v>469</v>
+        <v>1524</v>
       </c>
       <c r="W2" s="0" t="s">
-        <v>491</v>
+        <v>1546</v>
       </c>
       <c r="X2" s="0" t="s">
-        <v>513</v>
+        <v>1568</v>
       </c>
       <c r="Y2" s="0" t="s">
-        <v>536</v>
+        <v>1591</v>
       </c>
       <c r="Z2" s="0" t="s">
-        <v>558</v>
+        <v>1613</v>
       </c>
       <c r="AA2" s="0" t="s">
-        <v>580</v>
+        <v>1635</v>
       </c>
       <c r="AB2" s="0" t="s">
-        <v>599</v>
+        <v>1654</v>
       </c>
       <c r="AC2" s="0" t="s">
-        <v>619</v>
+        <v>1674</v>
       </c>
       <c r="AD2" s="0" t="s">
-        <v>640</v>
+        <v>1695</v>
       </c>
       <c r="AE2" s="0" t="s">
-        <v>663</v>
+        <v>1718</v>
       </c>
       <c r="AF2" s="0" t="s">
-        <v>686</v>
+        <v>1741</v>
       </c>
       <c r="AG2" s="0" t="s">
-        <v>709</v>
+        <v>1764</v>
       </c>
       <c r="AH2" s="0" t="s">
-        <v>730</v>
+        <v>1785</v>
       </c>
       <c r="AI2" s="0" t="s">
-        <v>751</v>
+        <v>1806</v>
       </c>
       <c r="AJ2" s="0" t="s">
-        <v>774</v>
+        <v>1829</v>
       </c>
       <c r="AK2" s="0" t="s">
-        <v>797</v>
+        <v>1852</v>
       </c>
       <c r="AL2" s="0" t="s">
-        <v>818</v>
+        <v>1873</v>
       </c>
       <c r="AM2" s="0" t="s">
-        <v>841</v>
+        <v>1896</v>
       </c>
       <c r="AN2" s="0" t="s">
-        <v>864</v>
+        <v>1919</v>
       </c>
       <c r="AO2" s="0" t="s">
-        <v>884</v>
+        <v>1939</v>
       </c>
       <c r="AP2" s="0" t="s">
-        <v>903</v>
+        <v>1958</v>
       </c>
       <c r="AQ2" s="0" t="s">
-        <v>924</v>
+        <v>1979</v>
       </c>
       <c r="AR2" s="0" t="s">
-        <v>946</v>
+        <v>2001</v>
       </c>
       <c r="AS2" s="0" t="s">
-        <v>968</v>
+        <v>2023</v>
       </c>
       <c r="AT2" s="0" t="s">
-        <v>991</v>
+        <v>2046</v>
       </c>
       <c r="AU2" s="0" t="s">
-        <v>1011</v>
+        <v>2066</v>
       </c>
       <c r="AV2" s="0" t="s">
-        <v>1033</v>
+        <v>2088</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="0" t="s">
-        <v>2</v>
+        <v>1057</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>26</v>
+        <v>1081</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>46</v>
+        <v>1101</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>68</v>
+        <v>1123</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>91</v>
+        <v>1146</v>
       </c>
       <c r="F3" s="0" t="s">
-        <v>113</v>
+        <v>1168</v>
       </c>
       <c r="G3" s="0" t="s">
-        <v>136</v>
+        <v>1191</v>
       </c>
       <c r="H3" s="0" t="s">
-        <v>157</v>
+        <v>1212</v>
       </c>
       <c r="I3" s="0" t="s">
-        <v>178</v>
+        <v>1233</v>
       </c>
       <c r="J3" s="0" t="s">
-        <v>200</v>
+        <v>1255</v>
       </c>
       <c r="K3" s="0" t="s">
-        <v>223</v>
+        <v>1278</v>
       </c>
       <c r="L3" s="0" t="s">
-        <v>247</v>
+        <v>1302</v>
       </c>
       <c r="M3" s="0" t="s">
-        <v>268</v>
+        <v>1323</v>
       </c>
       <c r="N3" s="0" t="s">
-        <v>291</v>
+        <v>1346</v>
       </c>
       <c r="O3" s="0" t="s">
-        <v>314</v>
+        <v>1369</v>
       </c>
       <c r="P3" s="0" t="s">
-        <v>337</v>
+        <v>1392</v>
       </c>
       <c r="Q3" s="0" t="s">
-        <v>361</v>
+        <v>1416</v>
       </c>
       <c r="R3" s="0" t="s">
-        <v>380</v>
+        <v>1435</v>
       </c>
       <c r="S3" s="0" t="s">
-        <v>403</v>
+        <v>1458</v>
       </c>
       <c r="T3" s="0" t="s">
-        <v>425</v>
+        <v>1480</v>
       </c>
       <c r="U3" s="0" t="s">
-        <v>447</v>
+        <v>1502</v>
       </c>
       <c r="V3" s="0" t="s">
-        <v>470</v>
+        <v>1525</v>
       </c>
       <c r="W3" s="0" t="s">
-        <v>492</v>
+        <v>1547</v>
       </c>
       <c r="X3" s="0" t="s">
-        <v>514</v>
+        <v>1569</v>
       </c>
       <c r="Y3" s="0" t="s">
-        <v>537</v>
+        <v>1592</v>
       </c>
       <c r="Z3" s="0" t="s">
-        <v>559</v>
+        <v>1614</v>
       </c>
       <c r="AA3" s="0" t="s">
-        <v>581</v>
+        <v>1636</v>
       </c>
       <c r="AB3" s="0" t="s">
-        <v>600</v>
+        <v>1655</v>
       </c>
       <c r="AC3" s="0" t="s">
-        <v>620</v>
+        <v>1675</v>
       </c>
       <c r="AD3" s="0" t="s">
-        <v>641</v>
+        <v>1696</v>
       </c>
       <c r="AE3" s="0" t="s">
-        <v>664</v>
+        <v>1719</v>
       </c>
       <c r="AF3" s="0" t="s">
-        <v>687</v>
+        <v>1742</v>
       </c>
       <c r="AG3" s="0" t="s">
-        <v>710</v>
+        <v>1765</v>
       </c>
       <c r="AH3" s="0" t="s">
-        <v>731</v>
+        <v>1786</v>
       </c>
       <c r="AI3" s="0" t="s">
-        <v>752</v>
+        <v>1807</v>
       </c>
       <c r="AJ3" s="0" t="s">
-        <v>775</v>
+        <v>1830</v>
       </c>
       <c r="AK3" s="0" t="s">
-        <v>798</v>
+        <v>1853</v>
       </c>
       <c r="AL3" s="0" t="s">
-        <v>819</v>
+        <v>1874</v>
       </c>
       <c r="AM3" s="0" t="s">
-        <v>842</v>
+        <v>1897</v>
       </c>
       <c r="AN3" s="0" t="s">
-        <v>865</v>
+        <v>1920</v>
       </c>
       <c r="AO3" s="0" t="s">
-        <v>885</v>
+        <v>1940</v>
       </c>
       <c r="AP3" s="0" t="s">
-        <v>904</v>
+        <v>1959</v>
       </c>
       <c r="AQ3" s="0" t="s">
-        <v>925</v>
+        <v>1980</v>
       </c>
       <c r="AR3" s="0" t="s">
-        <v>947</v>
+        <v>2002</v>
       </c>
       <c r="AS3" s="0" t="s">
-        <v>969</v>
+        <v>2024</v>
       </c>
       <c r="AT3" s="0" t="s">
-        <v>992</v>
+        <v>2047</v>
       </c>
       <c r="AU3" s="0" t="s">
-        <v>1012</v>
+        <v>2067</v>
       </c>
       <c r="AV3" s="0" t="s">
-        <v>1034</v>
+        <v>2089</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0" t="s">
-        <v>3</v>
+        <v>1058</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>27</v>
+        <v>1082</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>47</v>
+        <v>1102</v>
       </c>
       <c r="D4" s="0" t="s">
-        <v>69</v>
+        <v>1124</v>
       </c>
       <c r="E4" s="0" t="s">
-        <v>92</v>
+        <v>1147</v>
       </c>
       <c r="F4" s="0" t="s">
-        <v>114</v>
+        <v>1169</v>
       </c>
       <c r="G4" s="0" t="s">
-        <v>137</v>
+        <v>1192</v>
       </c>
       <c r="H4" s="0" t="s">
-        <v>158</v>
+        <v>1213</v>
       </c>
       <c r="I4" s="0" t="s">
-        <v>179</v>
+        <v>1234</v>
       </c>
       <c r="J4" s="0" t="s">
-        <v>201</v>
+        <v>1256</v>
       </c>
       <c r="K4" s="0" t="s">
-        <v>224</v>
+        <v>1279</v>
       </c>
       <c r="L4" s="0" t="s">
-        <v>248</v>
+        <v>1303</v>
       </c>
       <c r="M4" s="0" t="s">
-        <v>269</v>
+        <v>1324</v>
       </c>
       <c r="N4" s="0" t="s">
-        <v>292</v>
+        <v>1347</v>
       </c>
       <c r="O4" s="0" t="s">
-        <v>315</v>
+        <v>1370</v>
       </c>
       <c r="P4" s="0" t="s">
-        <v>338</v>
+        <v>1393</v>
       </c>
       <c r="Q4" s="0" t="s">
-        <v>361</v>
+        <v>1416</v>
       </c>
       <c r="R4" s="0" t="s">
-        <v>381</v>
+        <v>1436</v>
       </c>
       <c r="S4" s="0" t="s">
-        <v>404</v>
+        <v>1459</v>
       </c>
       <c r="T4" s="0" t="s">
-        <v>426</v>
+        <v>1481</v>
       </c>
       <c r="U4" s="0" t="s">
-        <v>448</v>
+        <v>1503</v>
       </c>
       <c r="V4" s="0" t="s">
-        <v>471</v>
+        <v>1526</v>
       </c>
       <c r="W4" s="0" t="s">
-        <v>493</v>
+        <v>1548</v>
       </c>
       <c r="X4" s="0" t="s">
-        <v>515</v>
+        <v>1570</v>
       </c>
       <c r="Y4" s="0" t="s">
-        <v>538</v>
+        <v>1593</v>
       </c>
       <c r="Z4" s="0" t="s">
-        <v>560</v>
+        <v>1615</v>
       </c>
       <c r="AA4" s="0" t="s">
-        <v>581</v>
+        <v>1636</v>
       </c>
       <c r="AB4" s="0" t="s">
-        <v>601</v>
+        <v>1656</v>
       </c>
       <c r="AC4" s="0" t="s">
-        <v>621</v>
+        <v>1676</v>
       </c>
       <c r="AD4" s="0" t="s">
-        <v>642</v>
+        <v>1697</v>
       </c>
       <c r="AE4" s="0" t="s">
-        <v>665</v>
+        <v>1720</v>
       </c>
       <c r="AF4" s="0" t="s">
-        <v>688</v>
+        <v>1743</v>
       </c>
       <c r="AG4" s="0" t="s">
-        <v>711</v>
+        <v>1766</v>
       </c>
       <c r="AH4" s="0" t="s">
-        <v>732</v>
+        <v>1787</v>
       </c>
       <c r="AI4" s="0" t="s">
-        <v>753</v>
+        <v>1808</v>
       </c>
       <c r="AJ4" s="0" t="s">
-        <v>776</v>
+        <v>1831</v>
       </c>
       <c r="AK4" s="0" t="s">
-        <v>799</v>
+        <v>1854</v>
       </c>
       <c r="AL4" s="0" t="s">
-        <v>820</v>
+        <v>1875</v>
       </c>
       <c r="AM4" s="0" t="s">
-        <v>843</v>
+        <v>1898</v>
       </c>
       <c r="AN4" s="0" t="s">
-        <v>866</v>
+        <v>1921</v>
       </c>
       <c r="AO4" s="0" t="s">
-        <v>885</v>
+        <v>1940</v>
       </c>
       <c r="AP4" s="0" t="s">
-        <v>905</v>
+        <v>1960</v>
       </c>
       <c r="AQ4" s="0" t="s">
-        <v>926</v>
+        <v>1981</v>
       </c>
       <c r="AR4" s="0" t="s">
-        <v>948</v>
+        <v>2003</v>
       </c>
       <c r="AS4" s="0" t="s">
-        <v>970</v>
+        <v>2025</v>
       </c>
       <c r="AT4" s="0" t="s">
-        <v>993</v>
+        <v>2048</v>
       </c>
       <c r="AU4" s="0" t="s">
-        <v>1013</v>
+        <v>2068</v>
       </c>
       <c r="AV4" s="0" t="s">
-        <v>1035</v>
+        <v>2090</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0" t="s">
-        <v>4</v>
+        <v>1059</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>28</v>
+        <v>1083</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>48</v>
+        <v>1103</v>
       </c>
       <c r="D5" s="0" t="s">
-        <v>70</v>
+        <v>1125</v>
       </c>
       <c r="E5" s="0" t="s">
-        <v>93</v>
+        <v>1148</v>
       </c>
       <c r="F5" s="0" t="s">
-        <v>115</v>
+        <v>1170</v>
       </c>
       <c r="G5" s="0" t="s">
-        <v>138</v>
+        <v>1193</v>
       </c>
       <c r="H5" s="0" t="s">
-        <v>159</v>
+        <v>1214</v>
       </c>
       <c r="I5" s="0" t="s">
-        <v>180</v>
+        <v>1235</v>
       </c>
       <c r="J5" s="0" t="s">
-        <v>202</v>
+        <v>1257</v>
       </c>
       <c r="K5" s="0" t="s">
-        <v>225</v>
+        <v>1280</v>
       </c>
       <c r="L5" s="0" t="s">
-        <v>249</v>
+        <v>1304</v>
       </c>
       <c r="M5" s="0" t="s">
-        <v>270</v>
+        <v>1325</v>
       </c>
       <c r="N5" s="0" t="s">
-        <v>293</v>
+        <v>1348</v>
       </c>
       <c r="O5" s="0" t="s">
-        <v>316</v>
+        <v>1371</v>
       </c>
       <c r="P5" s="0" t="s">
-        <v>339</v>
+        <v>1394</v>
       </c>
       <c r="Q5" s="0" t="s">
-        <v>362</v>
+        <v>1417</v>
       </c>
       <c r="R5" s="0" t="s">
-        <v>382</v>
+        <v>1437</v>
       </c>
       <c r="S5" s="0" t="s">
-        <v>405</v>
+        <v>1460</v>
       </c>
       <c r="T5" s="0" t="s">
-        <v>427</v>
+        <v>1482</v>
       </c>
       <c r="U5" s="0" t="s">
-        <v>449</v>
+        <v>1504</v>
       </c>
       <c r="V5" s="0" t="s">
-        <v>472</v>
+        <v>1527</v>
       </c>
       <c r="W5" s="0" t="s">
-        <v>494</v>
+        <v>1549</v>
       </c>
       <c r="X5" s="0" t="s">
-        <v>516</v>
+        <v>1571</v>
       </c>
       <c r="Y5" s="0" t="s">
-        <v>539</v>
+        <v>1594</v>
       </c>
       <c r="Z5" s="0" t="s">
-        <v>561</v>
+        <v>1616</v>
       </c>
       <c r="AA5" s="0" t="s">
-        <v>582</v>
+        <v>1637</v>
       </c>
       <c r="AB5" s="0" t="s">
-        <v>602</v>
+        <v>1657</v>
       </c>
       <c r="AC5" s="0" t="s">
-        <v>622</v>
+        <v>1677</v>
       </c>
       <c r="AD5" s="0" t="s">
-        <v>643</v>
+        <v>1698</v>
       </c>
       <c r="AE5" s="0" t="s">
-        <v>666</v>
+        <v>1721</v>
       </c>
       <c r="AF5" s="0" t="s">
-        <v>689</v>
+        <v>1744</v>
       </c>
       <c r="AG5" s="0" t="s">
-        <v>712</v>
+        <v>1767</v>
       </c>
       <c r="AH5" s="0" t="s">
-        <v>733</v>
+        <v>1788</v>
       </c>
       <c r="AI5" s="0" t="s">
-        <v>754</v>
+        <v>1809</v>
       </c>
       <c r="AJ5" s="0" t="s">
-        <v>777</v>
+        <v>1832</v>
       </c>
       <c r="AK5" s="0" t="s">
-        <v>800</v>
+        <v>1855</v>
       </c>
       <c r="AL5" s="0" t="s">
-        <v>821</v>
+        <v>1876</v>
       </c>
       <c r="AM5" s="0" t="s">
-        <v>844</v>
+        <v>1899</v>
       </c>
       <c r="AN5" s="0" t="s">
-        <v>867</v>
+        <v>1922</v>
       </c>
       <c r="AO5" s="0" t="s">
-        <v>886</v>
+        <v>1941</v>
       </c>
       <c r="AP5" s="0" t="s">
-        <v>906</v>
+        <v>1961</v>
       </c>
       <c r="AQ5" s="0" t="s">
-        <v>927</v>
+        <v>1982</v>
       </c>
       <c r="AR5" s="0" t="s">
-        <v>949</v>
+        <v>2004</v>
       </c>
       <c r="AS5" s="0" t="s">
-        <v>971</v>
+        <v>2026</v>
       </c>
       <c r="AT5" s="0" t="s">
-        <v>994</v>
+        <v>2049</v>
       </c>
       <c r="AU5" s="0" t="s">
-        <v>1014</v>
+        <v>2069</v>
       </c>
       <c r="AV5" s="0" t="s">
-        <v>1036</v>
+        <v>2091</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0" t="s">
-        <v>5</v>
+        <v>1060</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>29</v>
+        <v>1084</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>49</v>
+        <v>1104</v>
       </c>
       <c r="D6" s="0" t="s">
-        <v>70</v>
+        <v>1125</v>
       </c>
       <c r="E6" s="0" t="s">
-        <v>94</v>
+        <v>1149</v>
       </c>
       <c r="F6" s="0" t="s">
-        <v>116</v>
+        <v>1171</v>
       </c>
       <c r="G6" s="0" t="s">
-        <v>139</v>
+        <v>1194</v>
       </c>
       <c r="H6" s="0" t="s">
-        <v>160</v>
+        <v>1215</v>
       </c>
       <c r="I6" s="0" t="s">
-        <v>181</v>
+        <v>1236</v>
       </c>
       <c r="J6" s="0" t="s">
-        <v>203</v>
+        <v>1258</v>
       </c>
       <c r="K6" s="0" t="s">
-        <v>226</v>
+        <v>1281</v>
       </c>
       <c r="L6" s="0" t="s">
-        <v>250</v>
+        <v>1305</v>
       </c>
       <c r="M6" s="0" t="s">
-        <v>271</v>
+        <v>1326</v>
       </c>
       <c r="N6" s="0" t="s">
-        <v>294</v>
+        <v>1349</v>
       </c>
       <c r="O6" s="0" t="s">
-        <v>317</v>
+        <v>1372</v>
       </c>
       <c r="P6" s="0" t="s">
-        <v>340</v>
+        <v>1395</v>
       </c>
       <c r="Q6" s="0" t="s">
-        <v>363</v>
+        <v>1418</v>
       </c>
       <c r="R6" s="0" t="s">
-        <v>383</v>
+        <v>1438</v>
       </c>
       <c r="S6" s="0" t="s">
-        <v>406</v>
+        <v>1461</v>
       </c>
       <c r="T6" s="0" t="s">
-        <v>428</v>
+        <v>1483</v>
       </c>
       <c r="U6" s="0" t="s">
-        <v>450</v>
+        <v>1505</v>
       </c>
       <c r="V6" s="0" t="s">
-        <v>473</v>
+        <v>1528</v>
       </c>
       <c r="W6" s="0" t="s">
-        <v>495</v>
+        <v>1550</v>
       </c>
       <c r="X6" s="0" t="s">
-        <v>517</v>
+        <v>1572</v>
       </c>
       <c r="Y6" s="0" t="s">
-        <v>540</v>
+        <v>1595</v>
       </c>
       <c r="Z6" s="0" t="s">
-        <v>562</v>
+        <v>1617</v>
       </c>
       <c r="AA6" s="0" t="s">
-        <v>583</v>
+        <v>1638</v>
       </c>
       <c r="AB6" s="0" t="s">
-        <v>603</v>
+        <v>1658</v>
       </c>
       <c r="AC6" s="0" t="s">
-        <v>623</v>
+        <v>1678</v>
       </c>
       <c r="AD6" s="0" t="s">
-        <v>644</v>
+        <v>1699</v>
       </c>
       <c r="AE6" s="0" t="s">
-        <v>667</v>
+        <v>1722</v>
       </c>
       <c r="AF6" s="0" t="s">
-        <v>690</v>
+        <v>1745</v>
       </c>
       <c r="AG6" s="0" t="s">
-        <v>713</v>
+        <v>1768</v>
       </c>
       <c r="AH6" s="0" t="s">
-        <v>734</v>
+        <v>1789</v>
       </c>
       <c r="AI6" s="0" t="s">
-        <v>755</v>
+        <v>1810</v>
       </c>
       <c r="AJ6" s="0" t="s">
-        <v>778</v>
+        <v>1833</v>
       </c>
       <c r="AK6" s="0" t="s">
-        <v>801</v>
+        <v>1856</v>
       </c>
       <c r="AL6" s="0" t="s">
-        <v>822</v>
+        <v>1877</v>
       </c>
       <c r="AM6" s="0" t="s">
-        <v>845</v>
+        <v>1900</v>
       </c>
       <c r="AN6" s="0" t="s">
-        <v>868</v>
+        <v>1923</v>
       </c>
       <c r="AO6" s="0" t="s">
-        <v>887</v>
+        <v>1942</v>
       </c>
       <c r="AP6" s="0" t="s">
-        <v>907</v>
+        <v>1962</v>
       </c>
       <c r="AQ6" s="0" t="s">
-        <v>928</v>
+        <v>1983</v>
       </c>
       <c r="AR6" s="0" t="s">
-        <v>949</v>
+        <v>2004</v>
       </c>
       <c r="AS6" s="0" t="s">
-        <v>972</v>
+        <v>2027</v>
       </c>
       <c r="AT6" s="0" t="s">
-        <v>995</v>
+        <v>2050</v>
       </c>
       <c r="AU6" s="0" t="s">
-        <v>1015</v>
+        <v>2070</v>
       </c>
       <c r="AV6" s="0" t="s">
-        <v>1037</v>
+        <v>2092</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0" t="s">
-        <v>6</v>
+        <v>1061</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>30</v>
+        <v>1085</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>50</v>
+        <v>1105</v>
       </c>
       <c r="D7" s="0" t="s">
-        <v>71</v>
+        <v>1126</v>
       </c>
       <c r="E7" s="0" t="s">
-        <v>95</v>
+        <v>1150</v>
       </c>
       <c r="F7" s="0" t="s">
-        <v>117</v>
+        <v>1172</v>
       </c>
       <c r="G7" s="0" t="s">
-        <v>140</v>
+        <v>1195</v>
       </c>
       <c r="H7" s="0" t="s">
-        <v>161</v>
+        <v>1216</v>
       </c>
       <c r="I7" s="0" t="s">
-        <v>182</v>
+        <v>1237</v>
       </c>
       <c r="J7" s="0" t="s">
-        <v>204</v>
+        <v>1259</v>
       </c>
       <c r="K7" s="0" t="s">
-        <v>227</v>
+        <v>1282</v>
       </c>
       <c r="L7" s="0" t="s">
-        <v>251</v>
+        <v>1306</v>
       </c>
       <c r="M7" s="0" t="s">
-        <v>272</v>
+        <v>1327</v>
       </c>
       <c r="N7" s="0" t="s">
-        <v>295</v>
+        <v>1350</v>
       </c>
       <c r="O7" s="0" t="s">
-        <v>318</v>
+        <v>1373</v>
       </c>
       <c r="P7" s="0" t="s">
-        <v>341</v>
+        <v>1396</v>
       </c>
       <c r="Q7" s="0" t="s">
-        <v>363</v>
+        <v>1418</v>
       </c>
       <c r="R7" s="0" t="s">
-        <v>384</v>
+        <v>1439</v>
       </c>
       <c r="S7" s="0" t="s">
-        <v>407</v>
+        <v>1462</v>
       </c>
       <c r="T7" s="0" t="s">
-        <v>429</v>
+        <v>1484</v>
       </c>
       <c r="U7" s="0" t="s">
-        <v>451</v>
+        <v>1506</v>
       </c>
       <c r="V7" s="0" t="s">
-        <v>474</v>
+        <v>1529</v>
       </c>
       <c r="W7" s="0" t="s">
-        <v>495</v>
+        <v>1550</v>
       </c>
       <c r="X7" s="0" t="s">
-        <v>518</v>
+        <v>1573</v>
       </c>
       <c r="Y7" s="0" t="s">
-        <v>541</v>
+        <v>1596</v>
       </c>
       <c r="Z7" s="0" t="s">
-        <v>562</v>
+        <v>1617</v>
       </c>
       <c r="AA7" s="0" t="s">
-        <v>583</v>
+        <v>1638</v>
       </c>
       <c r="AB7" s="0" t="s">
-        <v>604</v>
+        <v>1659</v>
       </c>
       <c r="AC7" s="0" t="s">
-        <v>624</v>
+        <v>1679</v>
       </c>
       <c r="AD7" s="0" t="s">
-        <v>645</v>
+        <v>1700</v>
       </c>
       <c r="AE7" s="0" t="s">
-        <v>668</v>
+        <v>1723</v>
       </c>
       <c r="AF7" s="0" t="s">
-        <v>691</v>
+        <v>1746</v>
       </c>
       <c r="AG7" s="0" t="s">
-        <v>714</v>
+        <v>1769</v>
       </c>
       <c r="AH7" s="0" t="s">
-        <v>735</v>
+        <v>1790</v>
       </c>
       <c r="AI7" s="0" t="s">
-        <v>756</v>
+        <v>1811</v>
       </c>
       <c r="AJ7" s="0" t="s">
-        <v>779</v>
+        <v>1834</v>
       </c>
       <c r="AK7" s="0" t="s">
-        <v>802</v>
+        <v>1857</v>
       </c>
       <c r="AL7" s="0" t="s">
-        <v>823</v>
+        <v>1878</v>
       </c>
       <c r="AM7" s="0" t="s">
-        <v>846</v>
+        <v>1901</v>
       </c>
       <c r="AN7" s="0" t="s">
-        <v>868</v>
+        <v>1923</v>
       </c>
       <c r="AO7" s="0" t="s">
-        <v>887</v>
+        <v>1942</v>
       </c>
       <c r="AP7" s="0" t="s">
-        <v>908</v>
+        <v>1963</v>
       </c>
       <c r="AQ7" s="0" t="s">
-        <v>929</v>
+        <v>1984</v>
       </c>
       <c r="AR7" s="0" t="s">
-        <v>950</v>
+        <v>2005</v>
       </c>
       <c r="AS7" s="0" t="s">
-        <v>973</v>
+        <v>2028</v>
       </c>
       <c r="AT7" s="0" t="s">
-        <v>996</v>
+        <v>2051</v>
       </c>
       <c r="AU7" s="0" t="s">
-        <v>1015</v>
+        <v>2070</v>
       </c>
       <c r="AV7" s="0" t="s">
-        <v>1038</v>
+        <v>2093</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0" t="s">
-        <v>7</v>
+        <v>1062</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>31</v>
+        <v>1086</v>
       </c>
       <c r="C8" s="0" t="s">
-        <v>51</v>
+        <v>1106</v>
       </c>
       <c r="D8" s="0" t="s">
-        <v>72</v>
+        <v>1127</v>
       </c>
       <c r="E8" s="0" t="s">
-        <v>96</v>
+        <v>1151</v>
       </c>
       <c r="F8" s="0" t="s">
-        <v>118</v>
+        <v>1173</v>
       </c>
       <c r="G8" s="0" t="s">
-        <v>141</v>
+        <v>1196</v>
       </c>
       <c r="H8" s="0" t="s">
-        <v>162</v>
+        <v>1217</v>
       </c>
       <c r="I8" s="0" t="s">
-        <v>183</v>
+        <v>1238</v>
       </c>
       <c r="J8" s="0" t="s">
-        <v>205</v>
+        <v>1260</v>
       </c>
       <c r="K8" s="0" t="s">
-        <v>228</v>
+        <v>1283</v>
       </c>
       <c r="L8" s="0" t="s">
-        <v>252</v>
+        <v>1307</v>
       </c>
       <c r="M8" s="0" t="s">
-        <v>273</v>
+        <v>1328</v>
       </c>
       <c r="N8" s="0" t="s">
-        <v>296</v>
+        <v>1351</v>
       </c>
       <c r="O8" s="0" t="s">
-        <v>319</v>
+        <v>1374</v>
       </c>
       <c r="P8" s="0" t="s">
-        <v>342</v>
+        <v>1397</v>
       </c>
       <c r="Q8" s="0" t="s">
-        <v>364</v>
+        <v>1419</v>
       </c>
       <c r="R8" s="0" t="s">
-        <v>385</v>
+        <v>1440</v>
       </c>
       <c r="S8" s="0" t="s">
-        <v>408</v>
+        <v>1463</v>
       </c>
       <c r="T8" s="0" t="s">
-        <v>430</v>
+        <v>1485</v>
       </c>
       <c r="U8" s="0" t="s">
-        <v>452</v>
+        <v>1507</v>
       </c>
       <c r="V8" s="0" t="s">
-        <v>475</v>
+        <v>1530</v>
       </c>
       <c r="W8" s="0" t="s">
-        <v>496</v>
+        <v>1551</v>
       </c>
       <c r="X8" s="0" t="s">
-        <v>519</v>
+        <v>1574</v>
       </c>
       <c r="Y8" s="0" t="s">
-        <v>542</v>
+        <v>1597</v>
       </c>
       <c r="Z8" s="0" t="s">
-        <v>563</v>
+        <v>1618</v>
       </c>
       <c r="AA8" s="0" t="s">
-        <v>584</v>
+        <v>1639</v>
       </c>
       <c r="AB8" s="0" t="s">
-        <v>605</v>
+        <v>1660</v>
       </c>
       <c r="AC8" s="0" t="s">
-        <v>625</v>
+        <v>1680</v>
       </c>
       <c r="AD8" s="0" t="s">
-        <v>646</v>
+        <v>1701</v>
       </c>
       <c r="AE8" s="0" t="s">
-        <v>669</v>
+        <v>1724</v>
       </c>
       <c r="AF8" s="0" t="s">
-        <v>692</v>
+        <v>1747</v>
       </c>
       <c r="AG8" s="0" t="s">
-        <v>715</v>
+        <v>1770</v>
       </c>
       <c r="AH8" s="0" t="s">
-        <v>736</v>
+        <v>1791</v>
       </c>
       <c r="AI8" s="0" t="s">
-        <v>757</v>
+        <v>1812</v>
       </c>
       <c r="AJ8" s="0" t="s">
-        <v>780</v>
+        <v>1835</v>
       </c>
       <c r="AK8" s="0" t="s">
-        <v>803</v>
+        <v>1858</v>
       </c>
       <c r="AL8" s="0" t="s">
-        <v>824</v>
+        <v>1879</v>
       </c>
       <c r="AM8" s="0" t="s">
-        <v>847</v>
+        <v>1902</v>
       </c>
       <c r="AN8" s="0" t="s">
-        <v>869</v>
+        <v>1924</v>
       </c>
       <c r="AO8" s="0" t="s">
-        <v>888</v>
+        <v>1943</v>
       </c>
       <c r="AP8" s="0" t="s">
-        <v>909</v>
+        <v>1964</v>
       </c>
       <c r="AQ8" s="0" t="s">
-        <v>930</v>
+        <v>1985</v>
       </c>
       <c r="AR8" s="0" t="s">
-        <v>951</v>
+        <v>2006</v>
       </c>
       <c r="AS8" s="0" t="s">
-        <v>974</v>
+        <v>2029</v>
       </c>
       <c r="AT8" s="0" t="s">
-        <v>997</v>
+        <v>2052</v>
       </c>
       <c r="AU8" s="0" t="s">
-        <v>1016</v>
+        <v>2071</v>
       </c>
       <c r="AV8" s="0" t="s">
-        <v>1039</v>
+        <v>2094</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="0" t="s">
-        <v>8</v>
+        <v>1063</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>31</v>
+        <v>1086</v>
       </c>
       <c r="C9" s="0" t="s">
-        <v>52</v>
+        <v>1107</v>
       </c>
       <c r="D9" s="0" t="s">
-        <v>73</v>
+        <v>1128</v>
       </c>
       <c r="E9" s="0" t="s">
-        <v>96</v>
+        <v>1151</v>
       </c>
       <c r="F9" s="0" t="s">
-        <v>119</v>
+        <v>1174</v>
       </c>
       <c r="G9" s="0" t="s">
-        <v>141</v>
+        <v>1196</v>
       </c>
       <c r="H9" s="0" t="s">
-        <v>162</v>
+        <v>1217</v>
       </c>
       <c r="I9" s="0" t="s">
-        <v>184</v>
+        <v>1239</v>
       </c>
       <c r="J9" s="0" t="s">
-        <v>206</v>
+        <v>1261</v>
       </c>
       <c r="K9" s="0" t="s">
-        <v>229</v>
+        <v>1284</v>
       </c>
       <c r="L9" s="0" t="s">
-        <v>252</v>
+        <v>1307</v>
       </c>
       <c r="M9" s="0" t="s">
-        <v>274</v>
+        <v>1329</v>
       </c>
       <c r="N9" s="0" t="s">
-        <v>297</v>
+        <v>1352</v>
       </c>
       <c r="O9" s="0" t="s">
-        <v>320</v>
+        <v>1375</v>
       </c>
       <c r="P9" s="0" t="s">
-        <v>343</v>
+        <v>1398</v>
       </c>
       <c r="Q9" s="0" t="s">
-        <v>364</v>
+        <v>1419</v>
       </c>
       <c r="R9" s="0" t="s">
-        <v>386</v>
+        <v>1441</v>
       </c>
       <c r="S9" s="0" t="s">
-        <v>409</v>
+        <v>1464</v>
       </c>
       <c r="T9" s="0" t="s">
-        <v>431</v>
+        <v>1486</v>
       </c>
       <c r="U9" s="0" t="s">
-        <v>453</v>
+        <v>1508</v>
       </c>
       <c r="V9" s="0" t="s">
-        <v>476</v>
+        <v>1531</v>
       </c>
       <c r="W9" s="0" t="s">
-        <v>496</v>
+        <v>1551</v>
       </c>
       <c r="X9" s="0" t="s">
-        <v>520</v>
+        <v>1575</v>
       </c>
       <c r="Y9" s="0" t="s">
-        <v>543</v>
+        <v>1598</v>
       </c>
       <c r="Z9" s="0" t="s">
-        <v>564</v>
+        <v>1619</v>
       </c>
       <c r="AA9" s="0" t="s">
-        <v>584</v>
+        <v>1639</v>
       </c>
       <c r="AB9" s="0" t="s">
-        <v>605</v>
+        <v>1660</v>
       </c>
       <c r="AC9" s="0" t="s">
-        <v>625</v>
+        <v>1680</v>
       </c>
       <c r="AD9" s="0" t="s">
-        <v>647</v>
+        <v>1702</v>
       </c>
       <c r="AE9" s="0" t="s">
-        <v>670</v>
+        <v>1725</v>
       </c>
       <c r="AF9" s="0" t="s">
-        <v>693</v>
+        <v>1748</v>
       </c>
       <c r="AG9" s="0" t="s">
-        <v>715</v>
+        <v>1770</v>
       </c>
       <c r="AH9" s="0" t="s">
-        <v>736</v>
+        <v>1791</v>
       </c>
       <c r="AI9" s="0" t="s">
-        <v>758</v>
+        <v>1813</v>
       </c>
       <c r="AJ9" s="0" t="s">
-        <v>781</v>
+        <v>1836</v>
       </c>
       <c r="AK9" s="0" t="s">
-        <v>803</v>
+        <v>1858</v>
       </c>
       <c r="AL9" s="0" t="s">
-        <v>825</v>
+        <v>1880</v>
       </c>
       <c r="AM9" s="0" t="s">
-        <v>848</v>
+        <v>1903</v>
       </c>
       <c r="AN9" s="0" t="s">
-        <v>869</v>
+        <v>1924</v>
       </c>
       <c r="AO9" s="0" t="s">
-        <v>888</v>
+        <v>1943</v>
       </c>
       <c r="AP9" s="0" t="s">
-        <v>909</v>
+        <v>1964</v>
       </c>
       <c r="AQ9" s="0" t="s">
-        <v>931</v>
+        <v>1986</v>
       </c>
       <c r="AR9" s="0" t="s">
-        <v>952</v>
+        <v>2007</v>
       </c>
       <c r="AS9" s="0" t="s">
-        <v>975</v>
+        <v>2030</v>
       </c>
       <c r="AT9" s="0" t="s">
-        <v>997</v>
+        <v>2052</v>
       </c>
       <c r="AU9" s="0" t="s">
-        <v>1017</v>
+        <v>2072</v>
       </c>
       <c r="AV9" s="0" t="s">
-        <v>1040</v>
+        <v>2095</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="0" t="s">
-        <v>9</v>
+        <v>1064</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>32</v>
+        <v>1087</v>
       </c>
       <c r="C10" s="0" t="s">
-        <v>53</v>
+        <v>1108</v>
       </c>
       <c r="D10" s="0" t="s">
-        <v>74</v>
+        <v>1129</v>
       </c>
       <c r="E10" s="0" t="s">
-        <v>97</v>
+        <v>1152</v>
       </c>
       <c r="F10" s="0" t="s">
-        <v>120</v>
+        <v>1175</v>
       </c>
       <c r="G10" s="0" t="s">
-        <v>142</v>
+        <v>1197</v>
       </c>
       <c r="H10" s="0" t="s">
-        <v>163</v>
+        <v>1218</v>
       </c>
       <c r="I10" s="0" t="s">
-        <v>185</v>
+        <v>1240</v>
       </c>
       <c r="J10" s="0" t="s">
-        <v>207</v>
+        <v>1262</v>
       </c>
       <c r="K10" s="0" t="s">
-        <v>230</v>
+        <v>1285</v>
       </c>
       <c r="L10" s="0" t="s">
-        <v>253</v>
+        <v>1308</v>
       </c>
       <c r="M10" s="0" t="s">
-        <v>275</v>
+        <v>1330</v>
       </c>
       <c r="N10" s="0" t="s">
-        <v>298</v>
+        <v>1353</v>
       </c>
       <c r="O10" s="0" t="s">
-        <v>321</v>
+        <v>1376</v>
       </c>
       <c r="P10" s="0" t="s">
-        <v>344</v>
+        <v>1399</v>
       </c>
       <c r="Q10" s="0" t="s">
-        <v>365</v>
+        <v>1420</v>
       </c>
       <c r="R10" s="0" t="s">
-        <v>387</v>
+        <v>1442</v>
       </c>
       <c r="S10" s="0" t="s">
-        <v>410</v>
+        <v>1465</v>
       </c>
       <c r="T10" s="0" t="s">
-        <v>432</v>
+        <v>1487</v>
       </c>
       <c r="U10" s="0" t="s">
-        <v>454</v>
+        <v>1509</v>
       </c>
       <c r="V10" s="0" t="s">
-        <v>477</v>
+        <v>1532</v>
       </c>
       <c r="W10" s="0" t="s">
-        <v>497</v>
+        <v>1552</v>
       </c>
       <c r="X10" s="0" t="s">
-        <v>521</v>
+        <v>1576</v>
       </c>
       <c r="Y10" s="0" t="s">
-        <v>544</v>
+        <v>1599</v>
       </c>
       <c r="Z10" s="0" t="s">
-        <v>565</v>
+        <v>1620</v>
       </c>
       <c r="AA10" s="0" t="s">
-        <v>585</v>
+        <v>1640</v>
       </c>
       <c r="AB10" s="0" t="s">
-        <v>606</v>
+        <v>1661</v>
       </c>
       <c r="AC10" s="0" t="s">
-        <v>626</v>
+        <v>1681</v>
       </c>
       <c r="AD10" s="0" t="s">
-        <v>648</v>
+        <v>1703</v>
       </c>
       <c r="AE10" s="0" t="s">
-        <v>671</v>
+        <v>1726</v>
       </c>
       <c r="AF10" s="0" t="s">
-        <v>694</v>
+        <v>1749</v>
       </c>
       <c r="AG10" s="0" t="s">
-        <v>716</v>
+        <v>1771</v>
       </c>
       <c r="AH10" s="0" t="s">
-        <v>737</v>
+        <v>1792</v>
       </c>
       <c r="AI10" s="0" t="s">
-        <v>759</v>
+        <v>1814</v>
       </c>
       <c r="AJ10" s="0" t="s">
-        <v>782</v>
+        <v>1837</v>
       </c>
       <c r="AK10" s="0" t="s">
-        <v>804</v>
+        <v>1859</v>
       </c>
       <c r="AL10" s="0" t="s">
-        <v>826</v>
+        <v>1881</v>
       </c>
       <c r="AM10" s="0" t="s">
-        <v>849</v>
+        <v>1904</v>
       </c>
       <c r="AN10" s="0" t="s">
-        <v>870</v>
+        <v>1925</v>
       </c>
       <c r="AO10" s="0" t="s">
-        <v>889</v>
+        <v>1944</v>
       </c>
       <c r="AP10" s="0" t="s">
-        <v>910</v>
+        <v>1965</v>
       </c>
       <c r="AQ10" s="0" t="s">
-        <v>931</v>
+        <v>1986</v>
       </c>
       <c r="AR10" s="0" t="s">
-        <v>953</v>
+        <v>2008</v>
       </c>
       <c r="AS10" s="0" t="s">
-        <v>976</v>
+        <v>2031</v>
       </c>
       <c r="AT10" s="0" t="s">
-        <v>998</v>
+        <v>2053</v>
       </c>
       <c r="AU10" s="0" t="s">
-        <v>1018</v>
+        <v>2073</v>
       </c>
       <c r="AV10" s="0" t="s">
-        <v>1041</v>
+        <v>2096</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="0" t="s">
-        <v>10</v>
+        <v>1065</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>33</v>
+        <v>1088</v>
       </c>
       <c r="C11" s="0" t="s">
-        <v>54</v>
+        <v>1109</v>
       </c>
       <c r="D11" s="0" t="s">
-        <v>75</v>
+        <v>1130</v>
       </c>
       <c r="E11" s="0" t="s">
-        <v>98</v>
+        <v>1153</v>
       </c>
       <c r="F11" s="0" t="s">
-        <v>121</v>
+        <v>1176</v>
       </c>
       <c r="G11" s="0" t="s">
-        <v>143</v>
+        <v>1198</v>
       </c>
       <c r="H11" s="0" t="s">
-        <v>164</v>
+        <v>1219</v>
       </c>
       <c r="I11" s="0" t="s">
-        <v>186</v>
+        <v>1241</v>
       </c>
       <c r="J11" s="0" t="s">
-        <v>208</v>
+        <v>1263</v>
       </c>
       <c r="K11" s="0" t="s">
-        <v>231</v>
+        <v>1286</v>
       </c>
       <c r="L11" s="0" t="s">
-        <v>254</v>
+        <v>1309</v>
       </c>
       <c r="M11" s="0" t="s">
-        <v>276</v>
+        <v>1331</v>
       </c>
       <c r="N11" s="0" t="s">
-        <v>299</v>
+        <v>1354</v>
       </c>
       <c r="O11" s="0" t="s">
-        <v>322</v>
+        <v>1377</v>
       </c>
       <c r="P11" s="0" t="s">
-        <v>345</v>
+        <v>1400</v>
       </c>
       <c r="Q11" s="0" t="s">
-        <v>366</v>
+        <v>1421</v>
       </c>
       <c r="R11" s="0" t="s">
-        <v>388</v>
+        <v>1443</v>
       </c>
       <c r="S11" s="0" t="s">
-        <v>411</v>
+        <v>1466</v>
       </c>
       <c r="T11" s="0" t="s">
-        <v>433</v>
+        <v>1488</v>
       </c>
       <c r="U11" s="0" t="s">
-        <v>455</v>
+        <v>1510</v>
       </c>
       <c r="V11" s="0" t="s">
-        <v>478</v>
+        <v>1533</v>
       </c>
       <c r="W11" s="0" t="s">
-        <v>498</v>
+        <v>1553</v>
       </c>
       <c r="X11" s="0" t="s">
-        <v>522</v>
+        <v>1577</v>
       </c>
       <c r="Y11" s="0" t="s">
-        <v>545</v>
+        <v>1600</v>
       </c>
       <c r="Z11" s="0" t="s">
-        <v>566</v>
+        <v>1621</v>
       </c>
       <c r="AA11" s="0" t="s">
-        <v>586</v>
+        <v>1641</v>
       </c>
       <c r="AB11" s="0" t="s">
-        <v>607</v>
+        <v>1662</v>
       </c>
       <c r="AC11" s="0" t="s">
-        <v>627</v>
+        <v>1682</v>
       </c>
       <c r="AD11" s="0" t="s">
-        <v>649</v>
+        <v>1704</v>
       </c>
       <c r="AE11" s="0" t="s">
-        <v>672</v>
+        <v>1727</v>
       </c>
       <c r="AF11" s="0" t="s">
-        <v>695</v>
+        <v>1750</v>
       </c>
       <c r="AG11" s="0" t="s">
-        <v>717</v>
+        <v>1772</v>
       </c>
       <c r="AH11" s="0" t="s">
-        <v>738</v>
+        <v>1793</v>
       </c>
       <c r="AI11" s="0" t="s">
-        <v>760</v>
+        <v>1815</v>
       </c>
       <c r="AJ11" s="0" t="s">
-        <v>783</v>
+        <v>1838</v>
       </c>
       <c r="AK11" s="0" t="s">
-        <v>805</v>
+        <v>1860</v>
       </c>
       <c r="AL11" s="0" t="s">
-        <v>827</v>
+        <v>1882</v>
       </c>
       <c r="AM11" s="0" t="s">
-        <v>850</v>
+        <v>1905</v>
       </c>
       <c r="AN11" s="0" t="s">
-        <v>871</v>
+        <v>1926</v>
       </c>
       <c r="AO11" s="0" t="s">
-        <v>890</v>
+        <v>1945</v>
       </c>
       <c r="AP11" s="0" t="s">
-        <v>911</v>
+        <v>1966</v>
       </c>
       <c r="AQ11" s="0" t="s">
-        <v>932</v>
+        <v>1987</v>
       </c>
       <c r="AR11" s="0" t="s">
-        <v>954</v>
+        <v>2009</v>
       </c>
       <c r="AS11" s="0" t="s">
-        <v>977</v>
+        <v>2032</v>
       </c>
       <c r="AT11" s="0" t="s">
-        <v>999</v>
+        <v>2054</v>
       </c>
       <c r="AU11" s="0" t="s">
-        <v>1019</v>
+        <v>2074</v>
       </c>
       <c r="AV11" s="0" t="s">
-        <v>1042</v>
+        <v>2097</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="0" t="s">
-        <v>11</v>
+        <v>1066</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>33</v>
+        <v>1088</v>
       </c>
       <c r="C12" s="0" t="s">
-        <v>54</v>
+        <v>1109</v>
       </c>
       <c r="D12" s="0" t="s">
-        <v>76</v>
+        <v>1131</v>
       </c>
       <c r="E12" s="0" t="s">
-        <v>99</v>
+        <v>1154</v>
       </c>
       <c r="F12" s="0" t="s">
-        <v>121</v>
+        <v>1176</v>
       </c>
       <c r="G12" s="0" t="s">
-        <v>143</v>
+        <v>1198</v>
       </c>
       <c r="H12" s="0" t="s">
-        <v>164</v>
+        <v>1219</v>
       </c>
       <c r="I12" s="0" t="s">
-        <v>186</v>
+        <v>1241</v>
       </c>
       <c r="J12" s="0" t="s">
-        <v>209</v>
+        <v>1264</v>
       </c>
       <c r="K12" s="0" t="s">
-        <v>232</v>
+        <v>1287</v>
       </c>
       <c r="L12" s="0" t="s">
-        <v>254</v>
+        <v>1309</v>
       </c>
       <c r="M12" s="0" t="s">
-        <v>277</v>
+        <v>1332</v>
       </c>
       <c r="N12" s="0" t="s">
-        <v>300</v>
+        <v>1355</v>
       </c>
       <c r="O12" s="0" t="s">
-        <v>323</v>
+        <v>1378</v>
       </c>
       <c r="P12" s="0" t="s">
-        <v>346</v>
+        <v>1401</v>
       </c>
       <c r="Q12" s="0" t="s">
-        <v>366</v>
+        <v>1421</v>
       </c>
       <c r="R12" s="0" t="s">
-        <v>389</v>
+        <v>1444</v>
       </c>
       <c r="S12" s="0" t="s">
-        <v>412</v>
+        <v>1467</v>
       </c>
       <c r="T12" s="0" t="s">
-        <v>433</v>
+        <v>1488</v>
       </c>
       <c r="U12" s="0" t="s">
-        <v>455</v>
+        <v>1510</v>
       </c>
       <c r="V12" s="0" t="s">
-        <v>479</v>
+        <v>1534</v>
       </c>
       <c r="W12" s="0" t="s">
-        <v>499</v>
+        <v>1554</v>
       </c>
       <c r="X12" s="0" t="s">
-        <v>523</v>
+        <v>1578</v>
       </c>
       <c r="Y12" s="0" t="s">
-        <v>545</v>
+        <v>1600</v>
       </c>
       <c r="Z12" s="0" t="s">
-        <v>567</v>
+        <v>1622</v>
       </c>
       <c r="AA12" s="0" t="s">
-        <v>586</v>
+        <v>1641</v>
       </c>
       <c r="AB12" s="0" t="s">
-        <v>607</v>
+        <v>1662</v>
       </c>
       <c r="AC12" s="0" t="s">
-        <v>627</v>
+        <v>1682</v>
       </c>
       <c r="AD12" s="0" t="s">
-        <v>650</v>
+        <v>1705</v>
       </c>
       <c r="AE12" s="0" t="s">
-        <v>672</v>
+        <v>1727</v>
       </c>
       <c r="AF12" s="0" t="s">
-        <v>696</v>
+        <v>1751</v>
       </c>
       <c r="AG12" s="0" t="s">
-        <v>717</v>
+        <v>1772</v>
       </c>
       <c r="AH12" s="0" t="s">
-        <v>738</v>
+        <v>1793</v>
       </c>
       <c r="AI12" s="0" t="s">
-        <v>761</v>
+        <v>1816</v>
       </c>
       <c r="AJ12" s="0" t="s">
-        <v>784</v>
+        <v>1839</v>
       </c>
       <c r="AK12" s="0" t="s">
-        <v>805</v>
+        <v>1860</v>
       </c>
       <c r="AL12" s="0" t="s">
-        <v>828</v>
+        <v>1883</v>
       </c>
       <c r="AM12" s="0" t="s">
-        <v>851</v>
+        <v>1906</v>
       </c>
       <c r="AN12" s="0" t="s">
-        <v>871</v>
+        <v>1926</v>
       </c>
       <c r="AO12" s="0" t="s">
-        <v>890</v>
+        <v>1945</v>
       </c>
       <c r="AP12" s="0" t="s">
-        <v>911</v>
+        <v>1966</v>
       </c>
       <c r="AQ12" s="0" t="s">
-        <v>933</v>
+        <v>1988</v>
       </c>
       <c r="AR12" s="0" t="s">
-        <v>955</v>
+        <v>2010</v>
       </c>
       <c r="AS12" s="0" t="s">
-        <v>978</v>
+        <v>2033</v>
       </c>
       <c r="AT12" s="0" t="s">
-        <v>999</v>
+        <v>2054</v>
       </c>
       <c r="AU12" s="0" t="s">
-        <v>1019</v>
+        <v>2074</v>
       </c>
       <c r="AV12" s="0" t="s">
-        <v>1043</v>
+        <v>2098</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="0" t="s">
-        <v>12</v>
+        <v>1067</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>34</v>
+        <v>1089</v>
       </c>
       <c r="C13" s="0" t="s">
-        <v>55</v>
+        <v>1110</v>
       </c>
       <c r="D13" s="0" t="s">
-        <v>77</v>
+        <v>1132</v>
       </c>
       <c r="E13" s="0" t="s">
-        <v>100</v>
+        <v>1155</v>
       </c>
       <c r="F13" s="0" t="s">
-        <v>122</v>
+        <v>1177</v>
       </c>
       <c r="G13" s="0" t="s">
-        <v>144</v>
+        <v>1199</v>
       </c>
       <c r="H13" s="0" t="s">
-        <v>165</v>
+        <v>1220</v>
       </c>
       <c r="I13" s="0" t="s">
-        <v>187</v>
+        <v>1242</v>
       </c>
       <c r="J13" s="0" t="s">
-        <v>210</v>
+        <v>1265</v>
       </c>
       <c r="K13" s="0" t="s">
-        <v>233</v>
+        <v>1288</v>
       </c>
       <c r="L13" s="0" t="s">
-        <v>255</v>
+        <v>1310</v>
       </c>
       <c r="M13" s="0" t="s">
-        <v>278</v>
+        <v>1333</v>
       </c>
       <c r="N13" s="0" t="s">
-        <v>301</v>
+        <v>1356</v>
       </c>
       <c r="O13" s="0" t="s">
-        <v>324</v>
+        <v>1379</v>
       </c>
       <c r="P13" s="0" t="s">
-        <v>347</v>
+        <v>1402</v>
       </c>
       <c r="Q13" s="0" t="s">
-        <v>367</v>
+        <v>1422</v>
       </c>
       <c r="R13" s="0" t="s">
-        <v>389</v>
+        <v>1444</v>
       </c>
       <c r="S13" s="0" t="s">
-        <v>413</v>
+        <v>1468</v>
       </c>
       <c r="T13" s="0" t="s">
-        <v>434</v>
+        <v>1489</v>
       </c>
       <c r="U13" s="0" t="s">
-        <v>456</v>
+        <v>1511</v>
       </c>
       <c r="V13" s="0" t="s">
-        <v>480</v>
+        <v>1535</v>
       </c>
       <c r="W13" s="0" t="s">
-        <v>500</v>
+        <v>1555</v>
       </c>
       <c r="X13" s="0" t="s">
-        <v>524</v>
+        <v>1579</v>
       </c>
       <c r="Y13" s="0" t="s">
-        <v>546</v>
+        <v>1601</v>
       </c>
       <c r="Z13" s="0" t="s">
-        <v>568</v>
+        <v>1623</v>
       </c>
       <c r="AA13" s="0" t="s">
-        <v>587</v>
+        <v>1642</v>
       </c>
       <c r="AB13" s="0" t="s">
-        <v>608</v>
+        <v>1663</v>
       </c>
       <c r="AC13" s="0" t="s">
-        <v>628</v>
+        <v>1683</v>
       </c>
       <c r="AD13" s="0" t="s">
-        <v>651</v>
+        <v>1706</v>
       </c>
       <c r="AE13" s="0" t="s">
-        <v>673</v>
+        <v>1728</v>
       </c>
       <c r="AF13" s="0" t="s">
-        <v>697</v>
+        <v>1752</v>
       </c>
       <c r="AG13" s="0" t="s">
-        <v>718</v>
+        <v>1773</v>
       </c>
       <c r="AH13" s="0" t="s">
-        <v>739</v>
+        <v>1794</v>
       </c>
       <c r="AI13" s="0" t="s">
-        <v>762</v>
+        <v>1817</v>
       </c>
       <c r="AJ13" s="0" t="s">
-        <v>785</v>
+        <v>1840</v>
       </c>
       <c r="AK13" s="0" t="s">
-        <v>806</v>
+        <v>1861</v>
       </c>
       <c r="AL13" s="0" t="s">
-        <v>829</v>
+        <v>1884</v>
       </c>
       <c r="AM13" s="0" t="s">
-        <v>852</v>
+        <v>1907</v>
       </c>
       <c r="AN13" s="0" t="s">
-        <v>872</v>
+        <v>1927</v>
       </c>
       <c r="AO13" s="0" t="s">
-        <v>891</v>
+        <v>1946</v>
       </c>
       <c r="AP13" s="0" t="s">
-        <v>912</v>
+        <v>1967</v>
       </c>
       <c r="AQ13" s="0" t="s">
-        <v>934</v>
+        <v>1989</v>
       </c>
       <c r="AR13" s="0" t="s">
-        <v>956</v>
+        <v>2011</v>
       </c>
       <c r="AS13" s="0" t="s">
-        <v>979</v>
+        <v>2034</v>
       </c>
       <c r="AT13" s="0" t="s">
-        <v>999</v>
+        <v>2054</v>
       </c>
       <c r="AU13" s="0" t="s">
-        <v>1020</v>
+        <v>2075</v>
       </c>
       <c r="AV13" s="0" t="s">
-        <v>1044</v>
+        <v>2099</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="0" t="s">
-        <v>13</v>
+        <v>1068</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>35</v>
+        <v>1090</v>
       </c>
       <c r="C14" s="0" t="s">
-        <v>56</v>
+        <v>1111</v>
       </c>
       <c r="D14" s="0" t="s">
-        <v>78</v>
+        <v>1133</v>
       </c>
       <c r="E14" s="0" t="s">
-        <v>101</v>
+        <v>1156</v>
       </c>
       <c r="F14" s="0" t="s">
-        <v>123</v>
+        <v>1178</v>
       </c>
       <c r="G14" s="0" t="s">
-        <v>145</v>
+        <v>1200</v>
       </c>
       <c r="H14" s="0" t="s">
-        <v>166</v>
+        <v>1221</v>
       </c>
       <c r="I14" s="0" t="s">
-        <v>188</v>
+        <v>1243</v>
       </c>
       <c r="J14" s="0" t="s">
-        <v>211</v>
+        <v>1266</v>
       </c>
       <c r="K14" s="0" t="s">
-        <v>234</v>
+        <v>1289</v>
       </c>
       <c r="L14" s="0" t="s">
-        <v>256</v>
+        <v>1311</v>
       </c>
       <c r="M14" s="0" t="s">
-        <v>279</v>
+        <v>1334</v>
       </c>
       <c r="N14" s="0" t="s">
-        <v>302</v>
+        <v>1357</v>
       </c>
       <c r="O14" s="0" t="s">
-        <v>325</v>
+        <v>1380</v>
       </c>
       <c r="P14" s="0" t="s">
-        <v>348</v>
+        <v>1403</v>
       </c>
       <c r="Q14" s="0" t="s">
-        <v>368</v>
+        <v>1423</v>
       </c>
       <c r="R14" s="0" t="s">
-        <v>390</v>
+        <v>1445</v>
       </c>
       <c r="S14" s="0" t="s">
-        <v>414</v>
+        <v>1469</v>
       </c>
       <c r="T14" s="0" t="s">
-        <v>435</v>
+        <v>1490</v>
       </c>
       <c r="U14" s="0" t="s">
-        <v>457</v>
+        <v>1512</v>
       </c>
       <c r="V14" s="0" t="s">
-        <v>481</v>
+        <v>1536</v>
       </c>
       <c r="W14" s="0" t="s">
-        <v>501</v>
+        <v>1556</v>
       </c>
       <c r="X14" s="0" t="s">
-        <v>525</v>
+        <v>1580</v>
       </c>
       <c r="Y14" s="0" t="s">
-        <v>547</v>
+        <v>1602</v>
       </c>
       <c r="Z14" s="0" t="s">
-        <v>569</v>
+        <v>1624</v>
       </c>
       <c r="AA14" s="0" t="s">
-        <v>588</v>
+        <v>1643</v>
       </c>
       <c r="AB14" s="0" t="s">
-        <v>609</v>
+        <v>1664</v>
       </c>
       <c r="AC14" s="0" t="s">
-        <v>629</v>
+        <v>1684</v>
       </c>
       <c r="AD14" s="0" t="s">
-        <v>652</v>
+        <v>1707</v>
       </c>
       <c r="AE14" s="0" t="s">
-        <v>674</v>
+        <v>1729</v>
       </c>
       <c r="AF14" s="0" t="s">
-        <v>698</v>
+        <v>1753</v>
       </c>
       <c r="AG14" s="0" t="s">
-        <v>719</v>
+        <v>1774</v>
       </c>
       <c r="AH14" s="0" t="s">
-        <v>740</v>
+        <v>1795</v>
       </c>
       <c r="AI14" s="0" t="s">
-        <v>763</v>
+        <v>1818</v>
       </c>
       <c r="AJ14" s="0" t="s">
-        <v>786</v>
+        <v>1841</v>
       </c>
       <c r="AK14" s="0" t="s">
-        <v>807</v>
+        <v>1862</v>
       </c>
       <c r="AL14" s="0" t="s">
-        <v>830</v>
+        <v>1885</v>
       </c>
       <c r="AM14" s="0" t="s">
-        <v>853</v>
+        <v>1908</v>
       </c>
       <c r="AN14" s="0" t="s">
-        <v>873</v>
+        <v>1928</v>
       </c>
       <c r="AO14" s="0" t="s">
-        <v>892</v>
+        <v>1947</v>
       </c>
       <c r="AP14" s="0" t="s">
-        <v>913</v>
+        <v>1968</v>
       </c>
       <c r="AQ14" s="0" t="s">
-        <v>935</v>
+        <v>1990</v>
       </c>
       <c r="AR14" s="0" t="s">
-        <v>957</v>
+        <v>2012</v>
       </c>
       <c r="AS14" s="0" t="s">
-        <v>980</v>
+        <v>2035</v>
       </c>
       <c r="AT14" s="0" t="s">
-        <v>1000</v>
+        <v>2055</v>
       </c>
       <c r="AU14" s="0" t="s">
-        <v>1021</v>
+        <v>2076</v>
       </c>
       <c r="AV14" s="0" t="s">
-        <v>1045</v>
+        <v>2100</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="0" t="s">
-        <v>14</v>
+        <v>1069</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>36</v>
+        <v>1091</v>
       </c>
       <c r="C15" s="0" t="s">
-        <v>57</v>
+        <v>1112</v>
       </c>
       <c r="D15" s="0" t="s">
-        <v>79</v>
+        <v>1134</v>
       </c>
       <c r="E15" s="0" t="s">
-        <v>102</v>
+        <v>1157</v>
       </c>
       <c r="F15" s="0" t="s">
-        <v>124</v>
+        <v>1179</v>
       </c>
       <c r="G15" s="0" t="s">
-        <v>146</v>
+        <v>1201</v>
       </c>
       <c r="H15" s="0" t="s">
-        <v>167</v>
+        <v>1222</v>
       </c>
       <c r="I15" s="0" t="s">
-        <v>189</v>
+        <v>1244</v>
       </c>
       <c r="J15" s="0" t="s">
-        <v>212</v>
+        <v>1267</v>
       </c>
       <c r="K15" s="0" t="s">
-        <v>235</v>
+        <v>1290</v>
       </c>
       <c r="L15" s="0" t="s">
-        <v>257</v>
+        <v>1312</v>
       </c>
       <c r="M15" s="0" t="s">
-        <v>280</v>
+        <v>1335</v>
       </c>
       <c r="N15" s="0" t="s">
-        <v>303</v>
+        <v>1358</v>
       </c>
       <c r="O15" s="0" t="s">
-        <v>326</v>
+        <v>1381</v>
       </c>
       <c r="P15" s="0" t="s">
-        <v>349</v>
+        <v>1404</v>
       </c>
       <c r="Q15" s="0" t="s">
-        <v>369</v>
+        <v>1424</v>
       </c>
       <c r="R15" s="0" t="s">
-        <v>391</v>
+        <v>1446</v>
       </c>
       <c r="S15" s="0" t="s">
-        <v>415</v>
+        <v>1470</v>
       </c>
       <c r="T15" s="0" t="s">
-        <v>436</v>
+        <v>1491</v>
       </c>
       <c r="U15" s="0" t="s">
-        <v>458</v>
+        <v>1513</v>
       </c>
       <c r="V15" s="0" t="s">
-        <v>482</v>
+        <v>1537</v>
       </c>
       <c r="W15" s="0" t="s">
-        <v>502</v>
+        <v>1557</v>
       </c>
       <c r="X15" s="0" t="s">
-        <v>526</v>
+        <v>1581</v>
       </c>
       <c r="Y15" s="0" t="s">
-        <v>548</v>
+        <v>1603</v>
       </c>
       <c r="Z15" s="0" t="s">
-        <v>570</v>
+        <v>1625</v>
       </c>
       <c r="AA15" s="0" t="s">
-        <v>589</v>
+        <v>1644</v>
       </c>
       <c r="AB15" s="0" t="s">
-        <v>610</v>
+        <v>1665</v>
       </c>
       <c r="AC15" s="0" t="s">
-        <v>630</v>
+        <v>1685</v>
       </c>
       <c r="AD15" s="0" t="s">
-        <v>653</v>
+        <v>1708</v>
       </c>
       <c r="AE15" s="0" t="s">
-        <v>675</v>
+        <v>1730</v>
       </c>
       <c r="AF15" s="0" t="s">
-        <v>699</v>
+        <v>1754</v>
       </c>
       <c r="AG15" s="0" t="s">
-        <v>720</v>
+        <v>1775</v>
       </c>
       <c r="AH15" s="0" t="s">
-        <v>741</v>
+        <v>1796</v>
       </c>
       <c r="AI15" s="0" t="s">
-        <v>764</v>
+        <v>1819</v>
       </c>
       <c r="AJ15" s="0" t="s">
-        <v>787</v>
+        <v>1842</v>
       </c>
       <c r="AK15" s="0" t="s">
-        <v>808</v>
+        <v>1863</v>
       </c>
       <c r="AL15" s="0" t="s">
-        <v>831</v>
+        <v>1886</v>
       </c>
       <c r="AM15" s="0" t="s">
-        <v>854</v>
+        <v>1909</v>
       </c>
       <c r="AN15" s="0" t="s">
-        <v>874</v>
+        <v>1929</v>
       </c>
       <c r="AO15" s="0" t="s">
-        <v>893</v>
+        <v>1948</v>
       </c>
       <c r="AP15" s="0" t="s">
-        <v>914</v>
+        <v>1969</v>
       </c>
       <c r="AQ15" s="0" t="s">
-        <v>936</v>
+        <v>1991</v>
       </c>
       <c r="AR15" s="0" t="s">
-        <v>958</v>
+        <v>2013</v>
       </c>
       <c r="AS15" s="0" t="s">
-        <v>981</v>
+        <v>2036</v>
       </c>
       <c r="AT15" s="0" t="s">
-        <v>1001</v>
+        <v>2056</v>
       </c>
       <c r="AU15" s="0" t="s">
-        <v>1022</v>
+        <v>2077</v>
       </c>
       <c r="AV15" s="0" t="s">
-        <v>1046</v>
+        <v>2101</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="0" t="s">
-        <v>15</v>
+        <v>1070</v>
       </c>
       <c r="B16" s="0" t="s">
-        <v>37</v>
+        <v>1092</v>
       </c>
       <c r="C16" s="0" t="s">
-        <v>58</v>
+        <v>1113</v>
       </c>
       <c r="D16" s="0" t="s">
-        <v>80</v>
+        <v>1135</v>
       </c>
       <c r="E16" s="0" t="s">
-        <v>103</v>
+        <v>1158</v>
       </c>
       <c r="F16" s="0" t="s">
-        <v>125</v>
+        <v>1180</v>
       </c>
       <c r="G16" s="0" t="s">
-        <v>147</v>
+        <v>1202</v>
       </c>
       <c r="H16" s="0" t="s">
-        <v>168</v>
+        <v>1223</v>
       </c>
       <c r="I16" s="0" t="s">
-        <v>190</v>
+        <v>1245</v>
       </c>
       <c r="J16" s="0" t="s">
-        <v>213</v>
+        <v>1268</v>
       </c>
       <c r="K16" s="0" t="s">
-        <v>236</v>
+        <v>1291</v>
       </c>
       <c r="L16" s="0" t="s">
-        <v>258</v>
+        <v>1313</v>
       </c>
       <c r="M16" s="0" t="s">
-        <v>281</v>
+        <v>1336</v>
       </c>
       <c r="N16" s="0" t="s">
-        <v>304</v>
+        <v>1359</v>
       </c>
       <c r="O16" s="0" t="s">
-        <v>327</v>
+        <v>1382</v>
       </c>
       <c r="P16" s="0" t="s">
-        <v>350</v>
+        <v>1405</v>
       </c>
       <c r="Q16" s="0" t="s">
-        <v>370</v>
+        <v>1425</v>
       </c>
       <c r="R16" s="0" t="s">
-        <v>392</v>
+        <v>1447</v>
       </c>
       <c r="S16" s="0" t="s">
-        <v>416</v>
+        <v>1471</v>
       </c>
       <c r="T16" s="0" t="s">
-        <v>437</v>
+        <v>1492</v>
       </c>
       <c r="U16" s="0" t="s">
-        <v>459</v>
+        <v>1514</v>
       </c>
       <c r="V16" s="0" t="s">
-        <v>483</v>
+        <v>1538</v>
       </c>
       <c r="W16" s="0" t="s">
-        <v>503</v>
+        <v>1558</v>
       </c>
       <c r="X16" s="0" t="s">
-        <v>527</v>
+        <v>1582</v>
       </c>
       <c r="Y16" s="0" t="s">
-        <v>549</v>
+        <v>1604</v>
       </c>
       <c r="Z16" s="0" t="s">
-        <v>571</v>
+        <v>1626</v>
       </c>
       <c r="AA16" s="0" t="s">
-        <v>590</v>
+        <v>1645</v>
       </c>
       <c r="AB16" s="0" t="s">
-        <v>611</v>
+        <v>1666</v>
       </c>
       <c r="AC16" s="0" t="s">
-        <v>631</v>
+        <v>1686</v>
       </c>
       <c r="AD16" s="0" t="s">
-        <v>654</v>
+        <v>1709</v>
       </c>
       <c r="AE16" s="0" t="s">
-        <v>676</v>
+        <v>1731</v>
       </c>
       <c r="AF16" s="0" t="s">
-        <v>700</v>
+        <v>1755</v>
       </c>
       <c r="AG16" s="0" t="s">
-        <v>721</v>
+        <v>1776</v>
       </c>
       <c r="AH16" s="0" t="s">
-        <v>742</v>
+        <v>1797</v>
       </c>
       <c r="AI16" s="0" t="s">
-        <v>765</v>
+        <v>1820</v>
       </c>
       <c r="AJ16" s="0" t="s">
-        <v>788</v>
+        <v>1843</v>
       </c>
       <c r="AK16" s="0" t="s">
-        <v>809</v>
+        <v>1864</v>
       </c>
       <c r="AL16" s="0" t="s">
-        <v>832</v>
+        <v>1887</v>
       </c>
       <c r="AM16" s="0" t="s">
-        <v>855</v>
+        <v>1910</v>
       </c>
       <c r="AN16" s="0" t="s">
-        <v>875</v>
+        <v>1930</v>
       </c>
       <c r="AO16" s="0" t="s">
-        <v>894</v>
+        <v>1949</v>
       </c>
       <c r="AP16" s="0" t="s">
-        <v>915</v>
+        <v>1970</v>
       </c>
       <c r="AQ16" s="0" t="s">
-        <v>937</v>
+        <v>1992</v>
       </c>
       <c r="AR16" s="0" t="s">
-        <v>959</v>
+        <v>2014</v>
       </c>
       <c r="AS16" s="0" t="s">
-        <v>982</v>
+        <v>2037</v>
       </c>
       <c r="AT16" s="0" t="s">
-        <v>1002</v>
+        <v>2057</v>
       </c>
       <c r="AU16" s="0" t="s">
-        <v>1023</v>
+        <v>2078</v>
       </c>
       <c r="AV16" s="0" t="s">
-        <v>1047</v>
+        <v>2102</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="0" t="s">
-        <v>16</v>
+        <v>1071</v>
       </c>
       <c r="B17" s="0" t="s">
-        <v>37</v>
+        <v>1092</v>
       </c>
       <c r="C17" s="0" t="s">
-        <v>59</v>
+        <v>1114</v>
       </c>
       <c r="D17" s="0" t="s">
-        <v>81</v>
+        <v>1136</v>
       </c>
       <c r="E17" s="0" t="s">
-        <v>104</v>
+        <v>1159</v>
       </c>
       <c r="F17" s="0" t="s">
-        <v>126</v>
+        <v>1181</v>
       </c>
       <c r="G17" s="0" t="s">
-        <v>148</v>
+        <v>1203</v>
       </c>
       <c r="H17" s="0" t="s">
-        <v>169</v>
+        <v>1224</v>
       </c>
       <c r="I17" s="0" t="s">
-        <v>190</v>
+        <v>1245</v>
       </c>
       <c r="J17" s="0" t="s">
-        <v>213</v>
+        <v>1268</v>
       </c>
       <c r="K17" s="0" t="s">
-        <v>237</v>
+        <v>1292</v>
       </c>
       <c r="L17" s="0" t="s">
-        <v>259</v>
+        <v>1314</v>
       </c>
       <c r="M17" s="0" t="s">
-        <v>282</v>
+        <v>1337</v>
       </c>
       <c r="N17" s="0" t="s">
-        <v>305</v>
+        <v>1360</v>
       </c>
       <c r="O17" s="0" t="s">
-        <v>328</v>
+        <v>1383</v>
       </c>
       <c r="P17" s="0" t="s">
-        <v>351</v>
+        <v>1406</v>
       </c>
       <c r="Q17" s="0" t="s">
-        <v>371</v>
+        <v>1426</v>
       </c>
       <c r="R17" s="0" t="s">
-        <v>393</v>
+        <v>1448</v>
       </c>
       <c r="S17" s="0" t="s">
-        <v>416</v>
+        <v>1471</v>
       </c>
       <c r="T17" s="0" t="s">
-        <v>437</v>
+        <v>1492</v>
       </c>
       <c r="U17" s="0" t="s">
-        <v>460</v>
+        <v>1515</v>
       </c>
       <c r="V17" s="0" t="s">
-        <v>483</v>
+        <v>1538</v>
       </c>
       <c r="W17" s="0" t="s">
-        <v>504</v>
+        <v>1559</v>
       </c>
       <c r="X17" s="0" t="s">
-        <v>528</v>
+        <v>1583</v>
       </c>
       <c r="Y17" s="0" t="s">
-        <v>550</v>
+        <v>1605</v>
       </c>
       <c r="Z17" s="0" t="s">
-        <v>572</v>
+        <v>1627</v>
       </c>
       <c r="AA17" s="0" t="s">
-        <v>591</v>
+        <v>1646</v>
       </c>
       <c r="AB17" s="0" t="s">
-        <v>611</v>
+        <v>1666</v>
       </c>
       <c r="AC17" s="0" t="s">
-        <v>632</v>
+        <v>1687</v>
       </c>
       <c r="AD17" s="0" t="s">
-        <v>655</v>
+        <v>1710</v>
       </c>
       <c r="AE17" s="0" t="s">
-        <v>677</v>
+        <v>1732</v>
       </c>
       <c r="AF17" s="0" t="s">
-        <v>700</v>
+        <v>1755</v>
       </c>
       <c r="AG17" s="0" t="s">
-        <v>722</v>
+        <v>1777</v>
       </c>
       <c r="AH17" s="0" t="s">
-        <v>743</v>
+        <v>1798</v>
       </c>
       <c r="AI17" s="0" t="s">
-        <v>766</v>
+        <v>1821</v>
       </c>
       <c r="AJ17" s="0" t="s">
-        <v>789</v>
+        <v>1844</v>
       </c>
       <c r="AK17" s="0" t="s">
-        <v>810</v>
+        <v>1865</v>
       </c>
       <c r="AL17" s="0" t="s">
-        <v>833</v>
+        <v>1888</v>
       </c>
       <c r="AM17" s="0" t="s">
-        <v>855</v>
+        <v>1910</v>
       </c>
       <c r="AN17" s="0" t="s">
-        <v>876</v>
+        <v>1931</v>
       </c>
       <c r="AO17" s="0" t="s">
-        <v>895</v>
+        <v>1950</v>
       </c>
       <c r="AP17" s="0" t="s">
-        <v>916</v>
+        <v>1971</v>
       </c>
       <c r="AQ17" s="0" t="s">
-        <v>938</v>
+        <v>1993</v>
       </c>
       <c r="AR17" s="0" t="s">
-        <v>960</v>
+        <v>2015</v>
       </c>
       <c r="AS17" s="0" t="s">
-        <v>982</v>
+        <v>2037</v>
       </c>
       <c r="AT17" s="0" t="s">
-        <v>1003</v>
+        <v>2058</v>
       </c>
       <c r="AU17" s="0" t="s">
-        <v>1024</v>
+        <v>2079</v>
       </c>
       <c r="AV17" s="0" t="s">
-        <v>1048</v>
+        <v>2103</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="0" t="s">
-        <v>17</v>
+        <v>1072</v>
       </c>
       <c r="B18" s="0" t="s">
-        <v>38</v>
+        <v>1093</v>
       </c>
       <c r="C18" s="0" t="s">
-        <v>60</v>
+        <v>1115</v>
       </c>
       <c r="D18" s="0" t="s">
-        <v>82</v>
+        <v>1137</v>
       </c>
       <c r="E18" s="0" t="s">
-        <v>105</v>
+        <v>1160</v>
       </c>
       <c r="F18" s="0" t="s">
-        <v>127</v>
+        <v>1182</v>
       </c>
       <c r="G18" s="0" t="s">
-        <v>149</v>
+        <v>1204</v>
       </c>
       <c r="H18" s="0" t="s">
-        <v>170</v>
+        <v>1225</v>
       </c>
       <c r="I18" s="0" t="s">
-        <v>191</v>
+        <v>1246</v>
       </c>
       <c r="J18" s="0" t="s">
-        <v>214</v>
+        <v>1269</v>
       </c>
       <c r="K18" s="0" t="s">
-        <v>238</v>
+        <v>1293</v>
       </c>
       <c r="L18" s="0" t="s">
-        <v>260</v>
+        <v>1315</v>
       </c>
       <c r="M18" s="0" t="s">
-        <v>283</v>
+        <v>1338</v>
       </c>
       <c r="N18" s="0" t="s">
-        <v>306</v>
+        <v>1361</v>
       </c>
       <c r="O18" s="0" t="s">
-        <v>329</v>
+        <v>1384</v>
       </c>
       <c r="P18" s="0" t="s">
-        <v>352</v>
+        <v>1407</v>
       </c>
       <c r="Q18" s="0" t="s">
-        <v>372</v>
+        <v>1427</v>
       </c>
       <c r="R18" s="0" t="s">
-        <v>394</v>
+        <v>1449</v>
       </c>
       <c r="S18" s="0" t="s">
-        <v>417</v>
+        <v>1472</v>
       </c>
       <c r="T18" s="0" t="s">
-        <v>438</v>
+        <v>1493</v>
       </c>
       <c r="U18" s="0" t="s">
-        <v>461</v>
+        <v>1516</v>
       </c>
       <c r="V18" s="0" t="s">
-        <v>484</v>
+        <v>1539</v>
       </c>
       <c r="W18" s="0" t="s">
-        <v>505</v>
+        <v>1560</v>
       </c>
       <c r="X18" s="0" t="s">
-        <v>529</v>
+        <v>1584</v>
       </c>
       <c r="Y18" s="0" t="s">
-        <v>551</v>
+        <v>1606</v>
       </c>
       <c r="Z18" s="0" t="s">
-        <v>573</v>
+        <v>1628</v>
       </c>
       <c r="AA18" s="0" t="s">
-        <v>592</v>
+        <v>1647</v>
       </c>
       <c r="AB18" s="0" t="s">
-        <v>612</v>
+        <v>1667</v>
       </c>
       <c r="AC18" s="0" t="s">
-        <v>633</v>
+        <v>1688</v>
       </c>
       <c r="AD18" s="0" t="s">
-        <v>656</v>
+        <v>1711</v>
       </c>
       <c r="AE18" s="0" t="s">
-        <v>678</v>
+        <v>1733</v>
       </c>
       <c r="AF18" s="0" t="s">
-        <v>701</v>
+        <v>1756</v>
       </c>
       <c r="AG18" s="0" t="s">
-        <v>723</v>
+        <v>1778</v>
       </c>
       <c r="AH18" s="0" t="s">
-        <v>744</v>
+        <v>1799</v>
       </c>
       <c r="AI18" s="0" t="s">
-        <v>767</v>
+        <v>1822</v>
       </c>
       <c r="AJ18" s="0" t="s">
-        <v>790</v>
+        <v>1845</v>
       </c>
       <c r="AK18" s="0" t="s">
-        <v>811</v>
+        <v>1866</v>
       </c>
       <c r="AL18" s="0" t="s">
-        <v>833</v>
+        <v>1888</v>
       </c>
       <c r="AM18" s="0" t="s">
-        <v>856</v>
+        <v>1911</v>
       </c>
       <c r="AN18" s="0" t="s">
-        <v>877</v>
+        <v>1932</v>
       </c>
       <c r="AO18" s="0" t="s">
-        <v>896</v>
+        <v>1951</v>
       </c>
       <c r="AP18" s="0" t="s">
-        <v>917</v>
+        <v>1972</v>
       </c>
       <c r="AQ18" s="0" t="s">
-        <v>939</v>
+        <v>1994</v>
       </c>
       <c r="AR18" s="0" t="s">
-        <v>961</v>
+        <v>2016</v>
       </c>
       <c r="AS18" s="0" t="s">
-        <v>983</v>
+        <v>2038</v>
       </c>
       <c r="AT18" s="0" t="s">
-        <v>1004</v>
+        <v>2059</v>
       </c>
       <c r="AU18" s="0" t="s">
-        <v>1025</v>
+        <v>2080</v>
       </c>
       <c r="AV18" s="0" t="s">
-        <v>1049</v>
+        <v>2104</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="0" t="s">
-        <v>18</v>
+        <v>1073</v>
       </c>
       <c r="B19" s="0" t="s">
-        <v>39</v>
+        <v>1094</v>
       </c>
       <c r="C19" s="0" t="s">
-        <v>61</v>
+        <v>1116</v>
       </c>
       <c r="D19" s="0" t="s">
-        <v>83</v>
+        <v>1138</v>
       </c>
       <c r="E19" s="0" t="s">
-        <v>105</v>
+        <v>1160</v>
       </c>
       <c r="F19" s="0" t="s">
-        <v>128</v>
+        <v>1183</v>
       </c>
       <c r="G19" s="0" t="s">
-        <v>150</v>
+        <v>1205</v>
       </c>
       <c r="H19" s="0" t="s">
-        <v>171</v>
+        <v>1226</v>
       </c>
       <c r="I19" s="0" t="s">
-        <v>192</v>
+        <v>1247</v>
       </c>
       <c r="J19" s="0" t="s">
-        <v>215</v>
+        <v>1270</v>
       </c>
       <c r="K19" s="0" t="s">
-        <v>239</v>
+        <v>1294</v>
       </c>
       <c r="L19" s="0" t="s">
-        <v>261</v>
+        <v>1316</v>
       </c>
       <c r="M19" s="0" t="s">
-        <v>284</v>
+        <v>1339</v>
       </c>
       <c r="N19" s="0" t="s">
-        <v>307</v>
+        <v>1362</v>
       </c>
       <c r="O19" s="0" t="s">
-        <v>330</v>
+        <v>1385</v>
       </c>
       <c r="P19" s="0" t="s">
-        <v>353</v>
+        <v>1408</v>
       </c>
       <c r="Q19" s="0" t="s">
-        <v>373</v>
+        <v>1428</v>
       </c>
       <c r="R19" s="0" t="s">
-        <v>395</v>
+        <v>1450</v>
       </c>
       <c r="S19" s="0" t="s">
-        <v>418</v>
+        <v>1473</v>
       </c>
       <c r="T19" s="0" t="s">
-        <v>439</v>
+        <v>1494</v>
       </c>
       <c r="U19" s="0" t="s">
-        <v>462</v>
+        <v>1517</v>
       </c>
       <c r="V19" s="0" t="s">
-        <v>485</v>
+        <v>1540</v>
       </c>
       <c r="W19" s="0" t="s">
-        <v>506</v>
+        <v>1561</v>
       </c>
       <c r="X19" s="0" t="s">
-        <v>530</v>
+        <v>1585</v>
       </c>
       <c r="Y19" s="0" t="s">
-        <v>552</v>
+        <v>1607</v>
       </c>
       <c r="Z19" s="0" t="s">
-        <v>574</v>
+        <v>1629</v>
       </c>
       <c r="AA19" s="0" t="s">
-        <v>593</v>
+        <v>1648</v>
       </c>
       <c r="AB19" s="0" t="s">
-        <v>613</v>
+        <v>1668</v>
       </c>
       <c r="AC19" s="0" t="s">
-        <v>634</v>
+        <v>1689</v>
       </c>
       <c r="AD19" s="0" t="s">
-        <v>657</v>
+        <v>1712</v>
       </c>
       <c r="AE19" s="0" t="s">
-        <v>679</v>
+        <v>1734</v>
       </c>
       <c r="AF19" s="0" t="s">
-        <v>702</v>
+        <v>1757</v>
       </c>
       <c r="AG19" s="0" t="s">
-        <v>724</v>
+        <v>1779</v>
       </c>
       <c r="AH19" s="0" t="s">
-        <v>745</v>
+        <v>1800</v>
       </c>
       <c r="AI19" s="0" t="s">
-        <v>768</v>
+        <v>1823</v>
       </c>
       <c r="AJ19" s="0" t="s">
-        <v>791</v>
+        <v>1846</v>
       </c>
       <c r="AK19" s="0" t="s">
-        <v>812</v>
+        <v>1867</v>
       </c>
       <c r="AL19" s="0" t="s">
-        <v>834</v>
+        <v>1889</v>
       </c>
       <c r="AM19" s="0" t="s">
-        <v>857</v>
+        <v>1912</v>
       </c>
       <c r="AN19" s="0" t="s">
-        <v>878</v>
+        <v>1933</v>
       </c>
       <c r="AO19" s="0" t="s">
-        <v>897</v>
+        <v>1952</v>
       </c>
       <c r="AP19" s="0" t="s">
-        <v>918</v>
+        <v>1973</v>
       </c>
       <c r="AQ19" s="0" t="s">
-        <v>940</v>
+        <v>1995</v>
       </c>
       <c r="AR19" s="0" t="s">
-        <v>962</v>
+        <v>2017</v>
       </c>
       <c r="AS19" s="0" t="s">
-        <v>984</v>
+        <v>2039</v>
       </c>
       <c r="AT19" s="0" t="s">
-        <v>1005</v>
+        <v>2060</v>
       </c>
       <c r="AU19" s="0" t="s">
-        <v>1026</v>
+        <v>2081</v>
       </c>
       <c r="AV19" s="0" t="s">
-        <v>1050</v>
+        <v>2105</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="0" t="s">
-        <v>19</v>
+        <v>1074</v>
       </c>
       <c r="B20" s="0" t="s">
-        <v>40</v>
+        <v>1095</v>
       </c>
       <c r="C20" s="0" t="s">
-        <v>62</v>
+        <v>1117</v>
       </c>
       <c r="D20" s="0" t="s">
-        <v>84</v>
+        <v>1139</v>
       </c>
       <c r="E20" s="0" t="s">
-        <v>106</v>
+        <v>1161</v>
       </c>
       <c r="F20" s="0" t="s">
-        <v>129</v>
+        <v>1184</v>
       </c>
       <c r="G20" s="0" t="s">
-        <v>151</v>
+        <v>1206</v>
       </c>
       <c r="H20" s="0" t="s">
-        <v>172</v>
+        <v>1227</v>
       </c>
       <c r="I20" s="0" t="s">
-        <v>193</v>
+        <v>1248</v>
       </c>
       <c r="J20" s="0" t="s">
-        <v>216</v>
+        <v>1271</v>
       </c>
       <c r="K20" s="0" t="s">
-        <v>240</v>
+        <v>1295</v>
       </c>
       <c r="L20" s="0" t="s">
-        <v>262</v>
+        <v>1317</v>
       </c>
       <c r="M20" s="0" t="s">
-        <v>285</v>
+        <v>1340</v>
       </c>
       <c r="N20" s="0" t="s">
-        <v>308</v>
+        <v>1363</v>
       </c>
       <c r="O20" s="0" t="s">
-        <v>331</v>
+        <v>1386</v>
       </c>
       <c r="P20" s="0" t="s">
-        <v>354</v>
+        <v>1409</v>
       </c>
       <c r="Q20" s="0" t="s">
-        <v>374</v>
+        <v>1429</v>
       </c>
       <c r="R20" s="0" t="s">
-        <v>396</v>
+        <v>1451</v>
       </c>
       <c r="S20" s="0" t="s">
-        <v>419</v>
+        <v>1474</v>
       </c>
       <c r="T20" s="0" t="s">
-        <v>440</v>
+        <v>1495</v>
       </c>
       <c r="U20" s="0" t="s">
-        <v>463</v>
+        <v>1518</v>
       </c>
       <c r="V20" s="0" t="s">
-        <v>486</v>
+        <v>1541</v>
       </c>
       <c r="W20" s="0" t="s">
-        <v>507</v>
+        <v>1562</v>
       </c>
       <c r="X20" s="0" t="s">
-        <v>531</v>
+        <v>1586</v>
       </c>
       <c r="Y20" s="0" t="s">
-        <v>553</v>
+        <v>1608</v>
       </c>
       <c r="Z20" s="0" t="s">
-        <v>575</v>
+        <v>1630</v>
       </c>
       <c r="AA20" s="0" t="s">
-        <v>594</v>
+        <v>1649</v>
       </c>
       <c r="AB20" s="0" t="s">
-        <v>614</v>
+        <v>1669</v>
       </c>
       <c r="AC20" s="0" t="s">
-        <v>635</v>
+        <v>1690</v>
       </c>
       <c r="AD20" s="0" t="s">
-        <v>658</v>
+        <v>1713</v>
       </c>
       <c r="AE20" s="0" t="s">
-        <v>680</v>
+        <v>1735</v>
       </c>
       <c r="AF20" s="0" t="s">
-        <v>703</v>
+        <v>1758</v>
       </c>
       <c r="AG20" s="0" t="s">
-        <v>725</v>
+        <v>1780</v>
       </c>
       <c r="AH20" s="0" t="s">
-        <v>746</v>
+        <v>1801</v>
       </c>
       <c r="AI20" s="0" t="s">
-        <v>769</v>
+        <v>1824</v>
       </c>
       <c r="AJ20" s="0" t="s">
-        <v>792</v>
+        <v>1847</v>
       </c>
       <c r="AK20" s="0" t="s">
-        <v>813</v>
+        <v>1868</v>
       </c>
       <c r="AL20" s="0" t="s">
-        <v>835</v>
+        <v>1890</v>
       </c>
       <c r="AM20" s="0" t="s">
-        <v>858</v>
+        <v>1913</v>
       </c>
       <c r="AN20" s="0" t="s">
-        <v>879</v>
+        <v>1934</v>
       </c>
       <c r="AO20" s="0" t="s">
-        <v>898</v>
+        <v>1953</v>
       </c>
       <c r="AP20" s="0" t="s">
-        <v>919</v>
+        <v>1974</v>
       </c>
       <c r="AQ20" s="0" t="s">
-        <v>941</v>
+        <v>1996</v>
       </c>
       <c r="AR20" s="0" t="s">
-        <v>963</v>
+        <v>2018</v>
       </c>
       <c r="AS20" s="0" t="s">
-        <v>985</v>
+        <v>2040</v>
       </c>
       <c r="AT20" s="0" t="s">
-        <v>1006</v>
+        <v>2061</v>
       </c>
       <c r="AU20" s="0" t="s">
-        <v>1027</v>
+        <v>2082</v>
       </c>
       <c r="AV20" s="0" t="s">
-        <v>1051</v>
+        <v>2106</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="0" t="s">
-        <v>20</v>
+        <v>1075</v>
       </c>
       <c r="B21" s="0" t="s">
-        <v>41</v>
+        <v>1096</v>
       </c>
       <c r="C21" s="0" t="s">
-        <v>63</v>
+        <v>1118</v>
       </c>
       <c r="D21" s="0" t="s">
-        <v>85</v>
+        <v>1140</v>
       </c>
       <c r="E21" s="0" t="s">
-        <v>107</v>
+        <v>1162</v>
       </c>
       <c r="F21" s="0" t="s">
-        <v>130</v>
+        <v>1185</v>
       </c>
       <c r="G21" s="0" t="s">
-        <v>152</v>
+        <v>1207</v>
       </c>
       <c r="H21" s="0" t="s">
-        <v>173</v>
+        <v>1228</v>
       </c>
       <c r="I21" s="0" t="s">
-        <v>194</v>
+        <v>1249</v>
       </c>
       <c r="J21" s="0" t="s">
-        <v>217</v>
+        <v>1272</v>
       </c>
       <c r="K21" s="0" t="s">
-        <v>241</v>
+        <v>1296</v>
       </c>
       <c r="L21" s="0" t="s">
-        <v>263</v>
+        <v>1318</v>
       </c>
       <c r="M21" s="0" t="s">
-        <v>286</v>
+        <v>1341</v>
       </c>
       <c r="N21" s="0" t="s">
-        <v>309</v>
+        <v>1364</v>
       </c>
       <c r="O21" s="0" t="s">
-        <v>332</v>
+        <v>1387</v>
       </c>
       <c r="P21" s="0" t="s">
-        <v>355</v>
+        <v>1410</v>
       </c>
       <c r="Q21" s="0" t="s">
-        <v>375</v>
+        <v>1430</v>
       </c>
       <c r="R21" s="0" t="s">
-        <v>397</v>
+        <v>1452</v>
       </c>
       <c r="S21" s="0" t="s">
-        <v>420</v>
+        <v>1475</v>
       </c>
       <c r="T21" s="0" t="s">
-        <v>441</v>
+        <v>1496</v>
       </c>
       <c r="U21" s="0" t="s">
-        <v>464</v>
+        <v>1519</v>
       </c>
       <c r="V21" s="0" t="s">
-        <v>487</v>
+        <v>1542</v>
       </c>
       <c r="W21" s="0" t="s">
-        <v>508</v>
+        <v>1563</v>
       </c>
       <c r="X21" s="0" t="s">
-        <v>532</v>
+        <v>1587</v>
       </c>
       <c r="Y21" s="0" t="s">
-        <v>554</v>
+        <v>1609</v>
       </c>
       <c r="Z21" s="0" t="s">
-        <v>576</v>
+        <v>1631</v>
       </c>
       <c r="AA21" s="0" t="s">
-        <v>595</v>
+        <v>1650</v>
       </c>
       <c r="AB21" s="0" t="s">
-        <v>615</v>
+        <v>1670</v>
       </c>
       <c r="AC21" s="0" t="s">
-        <v>636</v>
+        <v>1691</v>
       </c>
       <c r="AD21" s="0" t="s">
-        <v>659</v>
+        <v>1714</v>
       </c>
       <c r="AE21" s="0" t="s">
-        <v>681</v>
+        <v>1736</v>
       </c>
       <c r="AF21" s="0" t="s">
-        <v>704</v>
+        <v>1759</v>
       </c>
       <c r="AG21" s="0" t="s">
-        <v>726</v>
+        <v>1781</v>
       </c>
       <c r="AH21" s="0" t="s">
-        <v>747</v>
+        <v>1802</v>
       </c>
       <c r="AI21" s="0" t="s">
-        <v>770</v>
+        <v>1825</v>
       </c>
       <c r="AJ21" s="0" t="s">
-        <v>793</v>
+        <v>1848</v>
       </c>
       <c r="AK21" s="0" t="s">
-        <v>814</v>
+        <v>1869</v>
       </c>
       <c r="AL21" s="0" t="s">
-        <v>836</v>
+        <v>1891</v>
       </c>
       <c r="AM21" s="0" t="s">
-        <v>859</v>
+        <v>1914</v>
       </c>
       <c r="AN21" s="0" t="s">
-        <v>880</v>
+        <v>1935</v>
       </c>
       <c r="AO21" s="0" t="s">
-        <v>899</v>
+        <v>1954</v>
       </c>
       <c r="AP21" s="0" t="s">
-        <v>920</v>
+        <v>1975</v>
       </c>
       <c r="AQ21" s="0" t="s">
-        <v>942</v>
+        <v>1997</v>
       </c>
       <c r="AR21" s="0" t="s">
-        <v>964</v>
+        <v>2019</v>
       </c>
       <c r="AS21" s="0" t="s">
-        <v>986</v>
+        <v>2041</v>
       </c>
       <c r="AT21" s="0" t="s">
-        <v>1007</v>
+        <v>2062</v>
       </c>
       <c r="AU21" s="0" t="s">
-        <v>1028</v>
+        <v>2083</v>
       </c>
       <c r="AV21" s="0" t="s">
-        <v>1052</v>
+        <v>2107</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="0" t="s">
-        <v>21</v>
+        <v>1076</v>
       </c>
       <c r="B22" s="0" t="s">
-        <v>42</v>
+        <v>1097</v>
       </c>
       <c r="C22" s="0" t="s">
-        <v>64</v>
+        <v>1119</v>
       </c>
       <c r="D22" s="0" t="s">
-        <v>86</v>
+        <v>1141</v>
       </c>
       <c r="E22" s="0" t="s">
-        <v>108</v>
+        <v>1163</v>
       </c>
       <c r="F22" s="0" t="s">
-        <v>131</v>
+        <v>1186</v>
       </c>
       <c r="G22" s="0" t="s">
-        <v>153</v>
+        <v>1208</v>
       </c>
       <c r="H22" s="0" t="s">
-        <v>174</v>
+        <v>1229</v>
       </c>
       <c r="I22" s="0" t="s">
-        <v>195</v>
+        <v>1250</v>
       </c>
       <c r="J22" s="0" t="s">
-        <v>218</v>
+        <v>1273</v>
       </c>
       <c r="K22" s="0" t="s">
-        <v>242</v>
+        <v>1297</v>
       </c>
       <c r="L22" s="0" t="s">
-        <v>264</v>
+        <v>1319</v>
       </c>
       <c r="M22" s="0" t="s">
-        <v>287</v>
+        <v>1342</v>
       </c>
       <c r="N22" s="0" t="s">
-        <v>310</v>
+        <v>1365</v>
       </c>
       <c r="O22" s="0" t="s">
-        <v>333</v>
+        <v>1388</v>
       </c>
       <c r="P22" s="0" t="s">
-        <v>356</v>
+        <v>1411</v>
       </c>
       <c r="Q22" s="0" t="s">
-        <v>376</v>
+        <v>1431</v>
       </c>
       <c r="R22" s="0" t="s">
-        <v>398</v>
+        <v>1453</v>
       </c>
       <c r="S22" s="0" t="s">
-        <v>421</v>
+        <v>1476</v>
       </c>
       <c r="T22" s="0" t="s">
-        <v>442</v>
+        <v>1497</v>
       </c>
       <c r="U22" s="0" t="s">
-        <v>465</v>
+        <v>1520</v>
       </c>
       <c r="V22" s="0" t="s">
-        <v>488</v>
+        <v>1543</v>
       </c>
       <c r="W22" s="0" t="s">
-        <v>509</v>
+        <v>1564</v>
       </c>
       <c r="X22" s="0" t="s">
-        <v>533</v>
+        <v>1588</v>
       </c>
       <c r="Y22" s="0" t="s">
-        <v>554</v>
+        <v>1609</v>
       </c>
       <c r="Z22" s="0" t="s">
-        <v>577</v>
+        <v>1632</v>
       </c>
       <c r="AA22" s="0" t="s">
-        <v>596</v>
+        <v>1651</v>
       </c>
       <c r="AB22" s="0" t="s">
-        <v>616</v>
+        <v>1671</v>
       </c>
       <c r="AC22" s="0" t="s">
-        <v>637</v>
+        <v>1692</v>
       </c>
       <c r="AD22" s="0" t="s">
-        <v>660</v>
+        <v>1715</v>
       </c>
       <c r="AE22" s="0" t="s">
-        <v>682</v>
+        <v>1737</v>
       </c>
       <c r="AF22" s="0" t="s">
-        <v>705</v>
+        <v>1760</v>
       </c>
       <c r="AG22" s="0" t="s">
-        <v>727</v>
+        <v>1782</v>
       </c>
       <c r="AH22" s="0" t="s">
-        <v>748</v>
+        <v>1803</v>
       </c>
       <c r="AI22" s="0" t="s">
-        <v>771</v>
+        <v>1826</v>
       </c>
       <c r="AJ22" s="0" t="s">
-        <v>794</v>
+        <v>1849</v>
       </c>
       <c r="AK22" s="0" t="s">
-        <v>815</v>
+        <v>1870</v>
       </c>
       <c r="AL22" s="0" t="s">
-        <v>837</v>
+        <v>1892</v>
       </c>
       <c r="AM22" s="0" t="s">
-        <v>860</v>
+        <v>1915</v>
       </c>
       <c r="AN22" s="0" t="s">
-        <v>881</v>
+        <v>1936</v>
       </c>
       <c r="AO22" s="0" t="s">
-        <v>900</v>
+        <v>1955</v>
       </c>
       <c r="AP22" s="0" t="s">
-        <v>921</v>
+        <v>1976</v>
       </c>
       <c r="AQ22" s="0" t="s">
-        <v>943</v>
+        <v>1998</v>
       </c>
       <c r="AR22" s="0" t="s">
-        <v>965</v>
+        <v>2020</v>
       </c>
       <c r="AS22" s="0" t="s">
-        <v>987</v>
+        <v>2042</v>
       </c>
       <c r="AT22" s="0" t="s">
-        <v>1008</v>
+        <v>2063</v>
       </c>
       <c r="AU22" s="0" t="s">
-        <v>1029</v>
+        <v>2084</v>
       </c>
       <c r="AV22" s="0" t="s">
-        <v>1053</v>
+        <v>2108</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="0" t="s">
-        <v>22</v>
+        <v>1077</v>
       </c>
       <c r="B23" s="0" t="s">
-        <v>42</v>
+        <v>1097</v>
       </c>
       <c r="C23" s="0" t="s">
-        <v>65</v>
+        <v>1120</v>
       </c>
       <c r="D23" s="0" t="s">
-        <v>87</v>
+        <v>1142</v>
       </c>
       <c r="E23" s="0" t="s">
-        <v>109</v>
+        <v>1164</v>
       </c>
       <c r="F23" s="0" t="s">
-        <v>132</v>
+        <v>1187</v>
       </c>
       <c r="G23" s="0" t="s">
-        <v>153</v>
+        <v>1208</v>
       </c>
       <c r="H23" s="0" t="s">
-        <v>174</v>
+        <v>1229</v>
       </c>
       <c r="I23" s="0" t="s">
-        <v>196</v>
+        <v>1251</v>
       </c>
       <c r="J23" s="0" t="s">
-        <v>219</v>
+        <v>1274</v>
       </c>
       <c r="K23" s="0" t="s">
-        <v>243</v>
+        <v>1298</v>
       </c>
       <c r="L23" s="0" t="s">
-        <v>264</v>
+        <v>1319</v>
       </c>
       <c r="M23" s="0" t="s">
-        <v>287</v>
+        <v>1342</v>
       </c>
       <c r="N23" s="0" t="s">
-        <v>310</v>
+        <v>1365</v>
       </c>
       <c r="O23" s="0" t="s">
-        <v>333</v>
+        <v>1388</v>
       </c>
       <c r="P23" s="0" t="s">
-        <v>357</v>
+        <v>1412</v>
       </c>
       <c r="Q23" s="0" t="s">
-        <v>376</v>
+        <v>1431</v>
       </c>
       <c r="R23" s="0" t="s">
-        <v>399</v>
+        <v>1454</v>
       </c>
       <c r="S23" s="0" t="s">
-        <v>421</v>
+        <v>1476</v>
       </c>
       <c r="T23" s="0" t="s">
-        <v>443</v>
+        <v>1498</v>
       </c>
       <c r="U23" s="0" t="s">
-        <v>466</v>
+        <v>1521</v>
       </c>
       <c r="V23" s="0" t="s">
-        <v>488</v>
+        <v>1543</v>
       </c>
       <c r="W23" s="0" t="s">
-        <v>510</v>
+        <v>1565</v>
       </c>
       <c r="X23" s="0" t="s">
-        <v>533</v>
+        <v>1588</v>
       </c>
       <c r="Y23" s="0" t="s">
-        <v>555</v>
+        <v>1610</v>
       </c>
       <c r="Z23" s="0" t="s">
-        <v>577</v>
+        <v>1632</v>
       </c>
       <c r="AA23" s="0" t="s">
-        <v>596</v>
+        <v>1651</v>
       </c>
       <c r="AB23" s="0" t="s">
-        <v>616</v>
+        <v>1671</v>
       </c>
       <c r="AC23" s="0" t="s">
-        <v>637</v>
+        <v>1692</v>
       </c>
       <c r="AD23" s="0" t="s">
-        <v>660</v>
+        <v>1715</v>
       </c>
       <c r="AE23" s="0" t="s">
-        <v>683</v>
+        <v>1738</v>
       </c>
       <c r="AF23" s="0" t="s">
-        <v>706</v>
+        <v>1761</v>
       </c>
       <c r="AG23" s="0" t="s">
-        <v>727</v>
+        <v>1782</v>
       </c>
       <c r="AH23" s="0" t="s">
-        <v>748</v>
+        <v>1803</v>
       </c>
       <c r="AI23" s="0" t="s">
-        <v>771</v>
+        <v>1826</v>
       </c>
       <c r="AJ23" s="0" t="s">
-        <v>794</v>
+        <v>1849</v>
       </c>
       <c r="AK23" s="0" t="s">
-        <v>815</v>
+        <v>1870</v>
       </c>
       <c r="AL23" s="0" t="s">
-        <v>838</v>
+        <v>1893</v>
       </c>
       <c r="AM23" s="0" t="s">
-        <v>861</v>
+        <v>1916</v>
       </c>
       <c r="AN23" s="0" t="s">
-        <v>881</v>
+        <v>1936</v>
       </c>
       <c r="AO23" s="0" t="s">
-        <v>900</v>
+        <v>1955</v>
       </c>
       <c r="AP23" s="0" t="s">
-        <v>921</v>
+        <v>1976</v>
       </c>
       <c r="AQ23" s="0" t="s">
-        <v>943</v>
+        <v>1998</v>
       </c>
       <c r="AR23" s="0" t="s">
-        <v>965</v>
+        <v>2020</v>
       </c>
       <c r="AS23" s="0" t="s">
-        <v>988</v>
+        <v>2043</v>
       </c>
       <c r="AT23" s="0" t="s">
-        <v>1008</v>
+        <v>2063</v>
       </c>
       <c r="AU23" s="0" t="s">
-        <v>1030</v>
+        <v>2085</v>
       </c>
       <c r="AV23" s="0" t="s">
-        <v>1053</v>
+        <v>2108</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="0" t="s">
-        <v>23</v>
+        <v>1078</v>
       </c>
       <c r="B24" s="0" t="s">
-        <v>43</v>
+        <v>1098</v>
       </c>
       <c r="C24" s="0" t="s">
-        <v>65</v>
+        <v>1120</v>
       </c>
       <c r="D24" s="0" t="s">
-        <v>88</v>
+        <v>1143</v>
       </c>
       <c r="E24" s="0" t="s">
-        <v>110</v>
+        <v>1165</v>
       </c>
       <c r="F24" s="0" t="s">
-        <v>133</v>
+        <v>1188</v>
       </c>
       <c r="G24" s="0" t="s">
-        <v>154</v>
+        <v>1209</v>
       </c>
       <c r="H24" s="0" t="s">
-        <v>175</v>
+        <v>1230</v>
       </c>
       <c r="I24" s="0" t="s">
-        <v>197</v>
+        <v>1252</v>
       </c>
       <c r="J24" s="0" t="s">
-        <v>220</v>
+        <v>1275</v>
       </c>
       <c r="K24" s="0" t="s">
-        <v>244</v>
+        <v>1299</v>
       </c>
       <c r="L24" s="0" t="s">
-        <v>265</v>
+        <v>1320</v>
       </c>
       <c r="M24" s="0" t="s">
-        <v>288</v>
+        <v>1343</v>
       </c>
       <c r="N24" s="0" t="s">
-        <v>311</v>
+        <v>1366</v>
       </c>
       <c r="O24" s="0" t="s">
-        <v>334</v>
+        <v>1389</v>
       </c>
       <c r="P24" s="0" t="s">
-        <v>358</v>
+        <v>1413</v>
       </c>
       <c r="Q24" s="0" t="s">
-        <v>377</v>
+        <v>1432</v>
       </c>
       <c r="R24" s="0" t="s">
-        <v>400</v>
+        <v>1455</v>
       </c>
       <c r="S24" s="0" t="s">
-        <v>422</v>
+        <v>1477</v>
       </c>
       <c r="T24" s="0" t="s">
-        <v>444</v>
+        <v>1499</v>
       </c>
       <c r="U24" s="0" t="s">
-        <v>467</v>
+        <v>1522</v>
       </c>
       <c r="V24" s="0" t="s">
-        <v>489</v>
+        <v>1544</v>
       </c>
       <c r="W24" s="0" t="s">
-        <v>511</v>
+        <v>1566</v>
       </c>
       <c r="X24" s="0" t="s">
-        <v>534</v>
+        <v>1589</v>
       </c>
       <c r="Y24" s="0" t="s">
-        <v>556</v>
+        <v>1611</v>
       </c>
       <c r="Z24" s="0" t="s">
-        <v>578</v>
+        <v>1633</v>
       </c>
       <c r="AA24" s="0" t="s">
-        <v>597</v>
+        <v>1652</v>
       </c>
       <c r="AB24" s="0" t="s">
-        <v>617</v>
+        <v>1672</v>
       </c>
       <c r="AC24" s="0" t="s">
-        <v>638</v>
+        <v>1693</v>
       </c>
       <c r="AD24" s="0" t="s">
-        <v>661</v>
+        <v>1716</v>
       </c>
       <c r="AE24" s="0" t="s">
-        <v>684</v>
+        <v>1739</v>
       </c>
       <c r="AF24" s="0" t="s">
-        <v>707</v>
+        <v>1762</v>
       </c>
       <c r="AG24" s="0" t="s">
-        <v>728</v>
+        <v>1783</v>
       </c>
       <c r="AH24" s="0" t="s">
-        <v>749</v>
+        <v>1804</v>
       </c>
       <c r="AI24" s="0" t="s">
-        <v>772</v>
+        <v>1827</v>
       </c>
       <c r="AJ24" s="0" t="s">
-        <v>795</v>
+        <v>1850</v>
       </c>
       <c r="AK24" s="0" t="s">
-        <v>816</v>
+        <v>1871</v>
       </c>
       <c r="AL24" s="0" t="s">
-        <v>839</v>
+        <v>1894</v>
       </c>
       <c r="AM24" s="0" t="s">
-        <v>862</v>
+        <v>1917</v>
       </c>
       <c r="AN24" s="0" t="s">
-        <v>882</v>
+        <v>1937</v>
       </c>
       <c r="AO24" s="0" t="s">
-        <v>901</v>
+        <v>1956</v>
       </c>
       <c r="AP24" s="0" t="s">
-        <v>922</v>
+        <v>1977</v>
       </c>
       <c r="AQ24" s="0" t="s">
-        <v>944</v>
+        <v>1999</v>
       </c>
       <c r="AR24" s="0" t="s">
-        <v>966</v>
+        <v>2021</v>
       </c>
       <c r="AS24" s="0" t="s">
-        <v>989</v>
+        <v>2044</v>
       </c>
       <c r="AT24" s="0" t="s">
-        <v>1009</v>
+        <v>2064</v>
       </c>
       <c r="AU24" s="0" t="s">
-        <v>1031</v>
+        <v>2086</v>
       </c>
       <c r="AV24" s="0" t="s">
-        <v>1054</v>
+        <v>2109</v>
       </c>
     </row>
   </sheetData>
